--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1759232002631137</v>
+        <v>0.1759232002630995</v>
       </c>
       <c r="D2">
-        <v>0.4261563750223587</v>
+        <v>0.426156375021975</v>
       </c>
       <c r="E2">
-        <v>0.1192438810856054</v>
+        <v>0.1192438810855805</v>
       </c>
       <c r="F2">
         <v>7.780355836662324</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00921001301733515</v>
+        <v>0.009210013017359131</v>
       </c>
       <c r="J2">
         <v>9.28540816709679</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.117117480494485</v>
+        <v>5.1171174804945</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.145850287850223</v>
+        <v>0.1458502878502657</v>
       </c>
       <c r="D3">
-        <v>0.3431528941291475</v>
+        <v>0.3431528941291617</v>
       </c>
       <c r="E3">
-        <v>0.1014163483159969</v>
+        <v>0.1014163483160182</v>
       </c>
       <c r="F3">
         <v>6.407150108476003</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01000188030572424</v>
+        <v>0.01000188030574556</v>
       </c>
       <c r="J3">
-        <v>7.800509628013344</v>
+        <v>7.800509628013316</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.299841346213782</v>
+        <v>4.299841346213768</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1288883284436082</v>
+        <v>0.1288883284432956</v>
       </c>
       <c r="D4">
-        <v>0.2986208705913782</v>
+        <v>0.2986208705918045</v>
       </c>
       <c r="E4">
-        <v>0.0911544419547603</v>
+        <v>0.09115444195472477</v>
       </c>
       <c r="F4">
-        <v>5.660255757552363</v>
+        <v>5.660255757552306</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0104858501068108</v>
+        <v>0.01048585010684366</v>
       </c>
       <c r="J4">
         <v>6.947714029974009</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.830851644095361</v>
+        <v>3.830851644095333</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1222582084224655</v>
+        <v>0.122258208422636</v>
       </c>
       <c r="D5">
-        <v>0.2816851556509334</v>
+        <v>0.2816851556512887</v>
       </c>
       <c r="E5">
-        <v>0.0870966502653765</v>
+        <v>0.08709665026547242</v>
       </c>
       <c r="F5">
-        <v>5.374185700559934</v>
+        <v>5.374185700559991</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01068396556156781</v>
+        <v>0.01068396556160689</v>
       </c>
       <c r="J5">
         <v>6.611219369854325</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.645895329420497</v>
+        <v>3.645895329420512</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1211720771675147</v>
+        <v>0.1211720771677136</v>
       </c>
       <c r="D6">
-        <v>0.2789367542594476</v>
+        <v>0.2789367542593766</v>
       </c>
       <c r="E6">
-        <v>0.08642924262935736</v>
+        <v>0.08642924262935381</v>
       </c>
       <c r="F6">
-        <v>5.327651361330481</v>
+        <v>5.32765136133051</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01071695043966958</v>
+        <v>0.0107169504396829</v>
       </c>
       <c r="J6">
         <v>6.555921906652003</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.615506556634628</v>
+        <v>3.615506556634642</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1287978749016929</v>
+        <v>0.1287978749011387</v>
       </c>
       <c r="D7">
-        <v>0.2983880039808753</v>
+        <v>0.2983880039803353</v>
       </c>
       <c r="E7">
-        <v>0.09109926667844803</v>
+        <v>0.09109926667841961</v>
       </c>
       <c r="F7">
-        <v>5.656330063740427</v>
+        <v>5.65633006374037</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01048851675624984</v>
+        <v>0.01048851675622497</v>
       </c>
       <c r="J7">
-        <v>6.9431354403726</v>
+        <v>6.943135440372629</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1651728835377497</v>
+        <v>0.1651728835373518</v>
       </c>
       <c r="D8">
-        <v>0.3959069930048145</v>
+        <v>0.395906993004786</v>
       </c>
       <c r="E8">
-        <v>0.1129198562712048</v>
+        <v>0.1129198562712119</v>
       </c>
       <c r="F8">
-        <v>7.282622575764691</v>
+        <v>7.282622575764748</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009484566307504494</v>
+        <v>0.009484566307532027</v>
       </c>
       <c r="J8">
-        <v>8.758448594413949</v>
+        <v>8.75844859441392</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.827002491146601</v>
+        <v>4.827002491146587</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2558687382439899</v>
+        <v>0.2558687382440326</v>
       </c>
       <c r="D9">
-        <v>0.6702268427110596</v>
+        <v>0.670226842711287</v>
       </c>
       <c r="E9">
         <v>0.1650040173377718</v>
       </c>
       <c r="F9">
-        <v>11.69630181547382</v>
+        <v>11.69630181547379</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.007385583915859861</v>
+        <v>0.007385583915857197</v>
       </c>
       <c r="J9">
-        <v>13.07838917172722</v>
+        <v>13.07838917172725</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.2065336314825</v>
+        <v>7.206533631482529</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3615307514716335</v>
+        <v>0.3615307514722161</v>
       </c>
       <c r="D10">
-        <v>1.04304455040068</v>
+        <v>1.043044550400225</v>
       </c>
       <c r="E10">
         <v>0.2240113824129395</v>
       </c>
       <c r="F10">
-        <v>17.38578749540244</v>
+        <v>17.38578749540261</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005377925309737464</v>
+        <v>0.00537792530972947</v>
       </c>
       <c r="J10">
-        <v>17.77559161995634</v>
+        <v>17.7755916199564</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4691551821944415</v>
+        <v>0.4691551821945126</v>
       </c>
       <c r="D11">
-        <v>1.484949264572265</v>
+        <v>1.48494926457235</v>
       </c>
       <c r="E11">
-        <v>0.2865834210136242</v>
+        <v>0.2865834210136384</v>
       </c>
       <c r="F11">
-        <v>23.73044928357137</v>
+        <v>23.73044928357064</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00382391274118854</v>
+        <v>0.003823912741170776</v>
       </c>
       <c r="J11">
-        <v>22.2125987918912</v>
+        <v>22.21259879189074</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.21154033957487</v>
+        <v>12.21154033957467</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4691551821944415</v>
+        <v>0.4691551821945126</v>
       </c>
       <c r="D12">
-        <v>1.484949264572265</v>
+        <v>1.48494926457235</v>
       </c>
       <c r="E12">
-        <v>0.2865834210136242</v>
+        <v>0.2865834210136384</v>
       </c>
       <c r="F12">
-        <v>23.73044928357137</v>
+        <v>23.73044928357064</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.00382391274118854</v>
+        <v>0.003823912741170776</v>
       </c>
       <c r="J12">
-        <v>22.2125987918912</v>
+        <v>22.21259879189074</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.21154033957487</v>
+        <v>12.21154033957467</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4691551821944415</v>
+        <v>0.4691551821945126</v>
       </c>
       <c r="D13">
-        <v>1.484949264572265</v>
+        <v>1.48494926457235</v>
       </c>
       <c r="E13">
-        <v>0.2865834210136242</v>
+        <v>0.2865834210136384</v>
       </c>
       <c r="F13">
-        <v>23.73044928357137</v>
+        <v>23.73044928357064</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.00382391274118854</v>
+        <v>0.003823912741170776</v>
       </c>
       <c r="J13">
-        <v>22.2125987918912</v>
+        <v>22.21259879189074</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.21154033957487</v>
+        <v>12.21154033957467</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.5461318902153067</v>
+        <v>0.5461318902150083</v>
       </c>
       <c r="D14">
-        <v>1.846262460105748</v>
+        <v>1.846262460103191</v>
       </c>
       <c r="E14">
-        <v>0.3370750987645259</v>
+        <v>0.3370750987642062</v>
       </c>
       <c r="F14">
-        <v>28.60759163817119</v>
+        <v>28.60759163813918</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003350229445551189</v>
+        <v>0.003350229445576058</v>
       </c>
       <c r="J14">
-        <v>25.18068775115336</v>
+        <v>25.18068775113429</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.80433911699498</v>
+        <v>13.80433911698481</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5812807020367643</v>
+        <v>0.5812807020364801</v>
       </c>
       <c r="D15">
-        <v>2.02664801469669</v>
+        <v>2.026648014696235</v>
       </c>
       <c r="E15">
-        <v>0.3632691185005683</v>
+        <v>0.3632691185005399</v>
       </c>
       <c r="F15">
-        <v>30.9351058442839</v>
+        <v>30.93510584428373</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003494052054335839</v>
+        <v>0.003494052054323626</v>
       </c>
       <c r="J15">
-        <v>26.48225338675422</v>
+        <v>26.48225338675411</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.49002036189233</v>
+        <v>14.49002036189225</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6726277752167249</v>
+        <v>0.6726277752162417</v>
       </c>
       <c r="D16">
-        <v>2.557395230250648</v>
+        <v>2.557395230250904</v>
       </c>
       <c r="E16">
-        <v>0.4490641628710499</v>
+        <v>0.4490641628710534</v>
       </c>
       <c r="F16">
-        <v>37.33682316505946</v>
+        <v>37.33682316505934</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006155152289809313</v>
+        <v>0.006155152289783139</v>
       </c>
       <c r="J16">
-        <v>29.73002916124983</v>
+        <v>29.7300291612498</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.13722003605537</v>
+        <v>16.13722003605534</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7080310910420025</v>
+        <v>0.708031091042514</v>
       </c>
       <c r="D17">
-        <v>2.798064706474719</v>
+        <v>2.798064706474577</v>
       </c>
       <c r="E17">
-        <v>0.4944775797642329</v>
+        <v>0.494477579764208</v>
       </c>
       <c r="F17">
-        <v>40.00018902253174</v>
+        <v>40.00018902253169</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.008905800191461977</v>
+        <v>0.008905800191426838</v>
       </c>
       <c r="J17">
-        <v>30.9531991699279</v>
+        <v>30.95319916992796</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7252813900571198</v>
+        <v>0.7252813900573472</v>
       </c>
       <c r="D18">
-        <v>2.92632616498895</v>
+        <v>2.926326164988893</v>
       </c>
       <c r="E18">
-        <v>0.5208933829009936</v>
+        <v>0.5208933829009901</v>
       </c>
       <c r="F18">
-        <v>41.35270653850409</v>
+        <v>41.35270653850398</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01089150978051445</v>
+        <v>0.01089150978053499</v>
       </c>
       <c r="J18">
-        <v>31.5484646201152</v>
+        <v>31.54846462011514</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.98718195917442</v>
+        <v>16.98718195917439</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.730713357637768</v>
+        <v>0.7307133576380238</v>
       </c>
       <c r="D19">
-        <v>2.968620445543536</v>
+        <v>2.96862044554382</v>
       </c>
       <c r="E19">
-        <v>0.5299810093131327</v>
+        <v>0.5299810093131612</v>
       </c>
       <c r="F19">
-        <v>41.78804022721334</v>
+        <v>41.7880402272134</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0116353405827474</v>
+        <v>0.01163534058272342</v>
       </c>
       <c r="J19">
-        <v>31.73652352310299</v>
+        <v>31.73652352310287</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.07017696534808</v>
+        <v>17.07017696534803</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7046205997148434</v>
+        <v>0.7046205997148718</v>
       </c>
       <c r="D20">
-        <v>2.773671016132084</v>
+        <v>2.773671016132198</v>
       </c>
       <c r="E20">
         <v>0.4896385270778332</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.008571663545266062</v>
+        <v>0.008571663545278663</v>
       </c>
       <c r="J20">
-        <v>30.83564537623957</v>
+        <v>30.83564537623963</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7046205997148434</v>
+        <v>0.7046205997148718</v>
       </c>
       <c r="D21">
-        <v>2.773671016132084</v>
+        <v>2.773671016132198</v>
       </c>
       <c r="E21">
         <v>0.4896385270778332</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.008571663545266062</v>
+        <v>0.008571663545278663</v>
       </c>
       <c r="J21">
-        <v>30.83564537623957</v>
+        <v>30.83564537623963</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7046205997148434</v>
+        <v>0.7046205997148718</v>
       </c>
       <c r="D22">
-        <v>2.773671016132084</v>
+        <v>2.773671016132198</v>
       </c>
       <c r="E22">
         <v>0.4896385270778332</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.008571663545266062</v>
+        <v>0.008571663545278663</v>
       </c>
       <c r="J22">
-        <v>30.83564537623957</v>
+        <v>30.83564537623963</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7046205997148434</v>
+        <v>0.7046205997148718</v>
       </c>
       <c r="D23">
-        <v>2.773671016132084</v>
+        <v>2.773671016132198</v>
       </c>
       <c r="E23">
         <v>0.4896385270778332</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.008571663545266062</v>
+        <v>0.008571663545278663</v>
       </c>
       <c r="J23">
-        <v>30.83564537623957</v>
+        <v>30.83564537623963</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7046205997148434</v>
+        <v>0.7046205997148718</v>
       </c>
       <c r="D24">
-        <v>2.773671016132084</v>
+        <v>2.773671016132198</v>
       </c>
       <c r="E24">
         <v>0.4896385270778332</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.008571663545266062</v>
+        <v>0.008571663545278663</v>
       </c>
       <c r="J24">
-        <v>30.83564537623957</v>
+        <v>30.83564537623963</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7046205997148434</v>
+        <v>0.7046205997148718</v>
       </c>
       <c r="D25">
-        <v>2.773671016132084</v>
+        <v>2.773671016132198</v>
       </c>
       <c r="E25">
         <v>0.4896385270778332</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.008571663545266062</v>
+        <v>0.008571663545278663</v>
       </c>
       <c r="J25">
-        <v>30.83564537623957</v>
+        <v>30.83564537623963</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1759232002630995</v>
+        <v>0.1759232002631137</v>
       </c>
       <c r="D2">
-        <v>0.426156375021975</v>
+        <v>0.4261563750223587</v>
       </c>
       <c r="E2">
-        <v>0.1192438810855805</v>
+        <v>0.1192438810856054</v>
       </c>
       <c r="F2">
         <v>7.780355836662324</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009210013017359131</v>
+        <v>0.00921001301733515</v>
       </c>
       <c r="J2">
         <v>9.28540816709679</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.1171174804945</v>
+        <v>5.117117480494485</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1458502878502657</v>
+        <v>0.145850287850223</v>
       </c>
       <c r="D3">
-        <v>0.3431528941291617</v>
+        <v>0.3431528941291475</v>
       </c>
       <c r="E3">
-        <v>0.1014163483160182</v>
+        <v>0.1014163483159969</v>
       </c>
       <c r="F3">
         <v>6.407150108476003</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01000188030574556</v>
+        <v>0.01000188030572424</v>
       </c>
       <c r="J3">
-        <v>7.800509628013316</v>
+        <v>7.800509628013344</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.299841346213768</v>
+        <v>4.299841346213782</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1288883284432956</v>
+        <v>0.1288883284436082</v>
       </c>
       <c r="D4">
-        <v>0.2986208705918045</v>
+        <v>0.2986208705913782</v>
       </c>
       <c r="E4">
-        <v>0.09115444195472477</v>
+        <v>0.0911544419547603</v>
       </c>
       <c r="F4">
-        <v>5.660255757552306</v>
+        <v>5.660255757552363</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01048585010684366</v>
+        <v>0.0104858501068108</v>
       </c>
       <c r="J4">
         <v>6.947714029974009</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.830851644095333</v>
+        <v>3.830851644095361</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.122258208422636</v>
+        <v>0.1222582084224655</v>
       </c>
       <c r="D5">
-        <v>0.2816851556512887</v>
+        <v>0.2816851556509334</v>
       </c>
       <c r="E5">
-        <v>0.08709665026547242</v>
+        <v>0.0870966502653765</v>
       </c>
       <c r="F5">
-        <v>5.374185700559991</v>
+        <v>5.374185700559934</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01068396556160689</v>
+        <v>0.01068396556156781</v>
       </c>
       <c r="J5">
         <v>6.611219369854325</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.645895329420512</v>
+        <v>3.645895329420497</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1211720771677136</v>
+        <v>0.1211720771675147</v>
       </c>
       <c r="D6">
-        <v>0.2789367542593766</v>
+        <v>0.2789367542594476</v>
       </c>
       <c r="E6">
-        <v>0.08642924262935381</v>
+        <v>0.08642924262935736</v>
       </c>
       <c r="F6">
-        <v>5.32765136133051</v>
+        <v>5.327651361330481</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0107169504396829</v>
+        <v>0.01071695043966958</v>
       </c>
       <c r="J6">
         <v>6.555921906652003</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.615506556634642</v>
+        <v>3.615506556634628</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1287978749011387</v>
+        <v>0.1287978749016929</v>
       </c>
       <c r="D7">
-        <v>0.2983880039803353</v>
+        <v>0.2983880039808753</v>
       </c>
       <c r="E7">
-        <v>0.09109926667841961</v>
+        <v>0.09109926667844803</v>
       </c>
       <c r="F7">
-        <v>5.65633006374037</v>
+        <v>5.656330063740427</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01048851675622497</v>
+        <v>0.01048851675624984</v>
       </c>
       <c r="J7">
-        <v>6.943135440372629</v>
+        <v>6.9431354403726</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1651728835373518</v>
+        <v>0.1651728835377497</v>
       </c>
       <c r="D8">
-        <v>0.395906993004786</v>
+        <v>0.3959069930048145</v>
       </c>
       <c r="E8">
-        <v>0.1129198562712119</v>
+        <v>0.1129198562712048</v>
       </c>
       <c r="F8">
-        <v>7.282622575764748</v>
+        <v>7.282622575764691</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009484566307532027</v>
+        <v>0.009484566307504494</v>
       </c>
       <c r="J8">
-        <v>8.75844859441392</v>
+        <v>8.758448594413949</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>4.827002491146587</v>
+        <v>4.827002491146601</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2558687382440326</v>
+        <v>0.2558687382439899</v>
       </c>
       <c r="D9">
-        <v>0.670226842711287</v>
+        <v>0.6702268427110596</v>
       </c>
       <c r="E9">
         <v>0.1650040173377718</v>
       </c>
       <c r="F9">
-        <v>11.69630181547379</v>
+        <v>11.69630181547382</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.007385583915857197</v>
+        <v>0.007385583915859861</v>
       </c>
       <c r="J9">
-        <v>13.07838917172725</v>
+        <v>13.07838917172722</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.206533631482529</v>
+        <v>7.2065336314825</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3615307514722161</v>
+        <v>0.3615307514716335</v>
       </c>
       <c r="D10">
-        <v>1.043044550400225</v>
+        <v>1.04304455040068</v>
       </c>
       <c r="E10">
         <v>0.2240113824129395</v>
       </c>
       <c r="F10">
-        <v>17.38578749540261</v>
+        <v>17.38578749540244</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00537792530972947</v>
+        <v>0.005377925309737464</v>
       </c>
       <c r="J10">
-        <v>17.7755916199564</v>
+        <v>17.77559161995634</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4691551821945126</v>
+        <v>0.4691551821944415</v>
       </c>
       <c r="D11">
-        <v>1.48494926457235</v>
+        <v>1.484949264572265</v>
       </c>
       <c r="E11">
-        <v>0.2865834210136384</v>
+        <v>0.2865834210136242</v>
       </c>
       <c r="F11">
-        <v>23.73044928357064</v>
+        <v>23.73044928357137</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003823912741170776</v>
+        <v>0.00382391274118854</v>
       </c>
       <c r="J11">
-        <v>22.21259879189074</v>
+        <v>22.2125987918912</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.21154033957467</v>
+        <v>12.21154033957487</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4691551821945126</v>
+        <v>0.4691551821944415</v>
       </c>
       <c r="D12">
-        <v>1.48494926457235</v>
+        <v>1.484949264572265</v>
       </c>
       <c r="E12">
-        <v>0.2865834210136384</v>
+        <v>0.2865834210136242</v>
       </c>
       <c r="F12">
-        <v>23.73044928357064</v>
+        <v>23.73044928357137</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.003823912741170776</v>
+        <v>0.00382391274118854</v>
       </c>
       <c r="J12">
-        <v>22.21259879189074</v>
+        <v>22.2125987918912</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.21154033957467</v>
+        <v>12.21154033957487</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4691551821945126</v>
+        <v>0.4691551821944415</v>
       </c>
       <c r="D13">
-        <v>1.48494926457235</v>
+        <v>1.484949264572265</v>
       </c>
       <c r="E13">
-        <v>0.2865834210136384</v>
+        <v>0.2865834210136242</v>
       </c>
       <c r="F13">
-        <v>23.73044928357064</v>
+        <v>23.73044928357137</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003823912741170776</v>
+        <v>0.00382391274118854</v>
       </c>
       <c r="J13">
-        <v>22.21259879189074</v>
+        <v>22.2125987918912</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.21154033957467</v>
+        <v>12.21154033957487</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.5461318902150083</v>
+        <v>0.5461318902153067</v>
       </c>
       <c r="D14">
-        <v>1.846262460103191</v>
+        <v>1.846262460105748</v>
       </c>
       <c r="E14">
-        <v>0.3370750987642062</v>
+        <v>0.3370750987645259</v>
       </c>
       <c r="F14">
-        <v>28.60759163813918</v>
+        <v>28.60759163817119</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003350229445576058</v>
+        <v>0.003350229445551189</v>
       </c>
       <c r="J14">
-        <v>25.18068775113429</v>
+        <v>25.18068775115336</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.80433911698481</v>
+        <v>13.80433911699498</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5812807020364801</v>
+        <v>0.5812807020367643</v>
       </c>
       <c r="D15">
-        <v>2.026648014696235</v>
+        <v>2.02664801469669</v>
       </c>
       <c r="E15">
-        <v>0.3632691185005399</v>
+        <v>0.3632691185005683</v>
       </c>
       <c r="F15">
-        <v>30.93510584428373</v>
+        <v>30.9351058442839</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003494052054323626</v>
+        <v>0.003494052054335839</v>
       </c>
       <c r="J15">
-        <v>26.48225338675411</v>
+        <v>26.48225338675422</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.49002036189225</v>
+        <v>14.49002036189233</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6726277752162417</v>
+        <v>0.6726277752167249</v>
       </c>
       <c r="D16">
-        <v>2.557395230250904</v>
+        <v>2.557395230250648</v>
       </c>
       <c r="E16">
-        <v>0.4490641628710534</v>
+        <v>0.4490641628710499</v>
       </c>
       <c r="F16">
-        <v>37.33682316505934</v>
+        <v>37.33682316505946</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006155152289783139</v>
+        <v>0.006155152289809313</v>
       </c>
       <c r="J16">
-        <v>29.7300291612498</v>
+        <v>29.73002916124983</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.13722003605534</v>
+        <v>16.13722003605537</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.708031091042514</v>
+        <v>0.7080310910420025</v>
       </c>
       <c r="D17">
-        <v>2.798064706474577</v>
+        <v>2.798064706474719</v>
       </c>
       <c r="E17">
-        <v>0.494477579764208</v>
+        <v>0.4944775797642329</v>
       </c>
       <c r="F17">
-        <v>40.00018902253169</v>
+        <v>40.00018902253174</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.008905800191426838</v>
+        <v>0.008905800191461977</v>
       </c>
       <c r="J17">
-        <v>30.95319916992796</v>
+        <v>30.9531991699279</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7252813900573472</v>
+        <v>0.7252813900571198</v>
       </c>
       <c r="D18">
-        <v>2.926326164988893</v>
+        <v>2.92632616498895</v>
       </c>
       <c r="E18">
-        <v>0.5208933829009901</v>
+        <v>0.5208933829009936</v>
       </c>
       <c r="F18">
-        <v>41.35270653850398</v>
+        <v>41.35270653850409</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01089150978053499</v>
+        <v>0.01089150978051445</v>
       </c>
       <c r="J18">
-        <v>31.54846462011514</v>
+        <v>31.5484646201152</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.98718195917439</v>
+        <v>16.98718195917442</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.7307133576380238</v>
+        <v>0.730713357637768</v>
       </c>
       <c r="D19">
-        <v>2.96862044554382</v>
+        <v>2.968620445543536</v>
       </c>
       <c r="E19">
-        <v>0.5299810093131612</v>
+        <v>0.5299810093131327</v>
       </c>
       <c r="F19">
-        <v>41.7880402272134</v>
+        <v>41.78804022721334</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01163534058272342</v>
+        <v>0.0116353405827474</v>
       </c>
       <c r="J19">
-        <v>31.73652352310287</v>
+        <v>31.73652352310299</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.07017696534803</v>
+        <v>17.07017696534808</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7046205997148718</v>
+        <v>0.7046205997148434</v>
       </c>
       <c r="D20">
-        <v>2.773671016132198</v>
+        <v>2.773671016132084</v>
       </c>
       <c r="E20">
         <v>0.4896385270778332</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.008571663545278663</v>
+        <v>0.008571663545266062</v>
       </c>
       <c r="J20">
-        <v>30.83564537623963</v>
+        <v>30.83564537623957</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7046205997148718</v>
+        <v>0.7046205997148434</v>
       </c>
       <c r="D21">
-        <v>2.773671016132198</v>
+        <v>2.773671016132084</v>
       </c>
       <c r="E21">
         <v>0.4896385270778332</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.008571663545278663</v>
+        <v>0.008571663545266062</v>
       </c>
       <c r="J21">
-        <v>30.83564537623963</v>
+        <v>30.83564537623957</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7046205997148718</v>
+        <v>0.7046205997148434</v>
       </c>
       <c r="D22">
-        <v>2.773671016132198</v>
+        <v>2.773671016132084</v>
       </c>
       <c r="E22">
         <v>0.4896385270778332</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.008571663545278663</v>
+        <v>0.008571663545266062</v>
       </c>
       <c r="J22">
-        <v>30.83564537623963</v>
+        <v>30.83564537623957</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7046205997148718</v>
+        <v>0.7046205997148434</v>
       </c>
       <c r="D23">
-        <v>2.773671016132198</v>
+        <v>2.773671016132084</v>
       </c>
       <c r="E23">
         <v>0.4896385270778332</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.008571663545278663</v>
+        <v>0.008571663545266062</v>
       </c>
       <c r="J23">
-        <v>30.83564537623963</v>
+        <v>30.83564537623957</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7046205997148718</v>
+        <v>0.7046205997148434</v>
       </c>
       <c r="D24">
-        <v>2.773671016132198</v>
+        <v>2.773671016132084</v>
       </c>
       <c r="E24">
         <v>0.4896385270778332</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.008571663545278663</v>
+        <v>0.008571663545266062</v>
       </c>
       <c r="J24">
-        <v>30.83564537623963</v>
+        <v>30.83564537623957</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7046205997148718</v>
+        <v>0.7046205997148434</v>
       </c>
       <c r="D25">
-        <v>2.773671016132198</v>
+        <v>2.773671016132084</v>
       </c>
       <c r="E25">
         <v>0.4896385270778332</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.008571663545278663</v>
+        <v>0.008571663545266062</v>
       </c>
       <c r="J25">
-        <v>30.83564537623963</v>
+        <v>30.83564537623957</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1759232002631137</v>
+        <v>0.1739923994456376</v>
       </c>
       <c r="D2">
-        <v>0.4261563750223587</v>
+        <v>0.4168986653182429</v>
       </c>
       <c r="E2">
-        <v>0.1192438810856054</v>
+        <v>0.115542967688679</v>
       </c>
       <c r="F2">
-        <v>7.780355836662324</v>
+        <v>7.685707413587579</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006584200055529356</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00921001301733515</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.28540816709679</v>
+        <v>0.008789283952104654</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.183038437648605</v>
       </c>
       <c r="L2">
-        <v>5.117117480494485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5.066219052402829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.145850287850223</v>
+        <v>0.1443499069573448</v>
       </c>
       <c r="D3">
-        <v>0.3431528941291475</v>
+        <v>0.3368807833689971</v>
       </c>
       <c r="E3">
-        <v>0.1014163483159969</v>
+        <v>0.09810199362551586</v>
       </c>
       <c r="F3">
-        <v>6.407150108476003</v>
+        <v>6.34843564545406</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006884214344938321</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01000188030572424</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.800509628013344</v>
+        <v>0.009523429504624481</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.720224781843484</v>
       </c>
       <c r="L3">
-        <v>4.299841346213782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.26047985559768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1288883284436082</v>
+        <v>0.1276079712013711</v>
       </c>
       <c r="D4">
-        <v>0.2986208705913782</v>
+        <v>0.2939689132673919</v>
       </c>
       <c r="E4">
-        <v>0.0911544419547603</v>
+        <v>0.08804746088509319</v>
       </c>
       <c r="F4">
-        <v>5.660255757552363</v>
+        <v>5.620734395087851</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007063012446342347</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0104858501068108</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.947714029974009</v>
+        <v>0.00997224085982662</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.879296677665877</v>
       </c>
       <c r="L4">
-        <v>3.830851644095361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.797664337513055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1222582084224655</v>
+        <v>0.1210600085166647</v>
       </c>
       <c r="D5">
-        <v>0.2816851556509334</v>
+        <v>0.2776583536087287</v>
       </c>
       <c r="E5">
-        <v>0.0870966502653765</v>
+        <v>0.08406917915514001</v>
       </c>
       <c r="F5">
-        <v>5.374185700559934</v>
+        <v>5.342008839946601</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007135120260737268</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01068396556156781</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.611219369854325</v>
+        <v>0.01015602677633609</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.547358139781892</v>
       </c>
       <c r="L5">
-        <v>3.645895329420497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.615073183056978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1211720771675147</v>
+        <v>0.1199871431730202</v>
       </c>
       <c r="D6">
-        <v>0.2789367542594476</v>
+        <v>0.275012036914859</v>
       </c>
       <c r="E6">
-        <v>0.08642924262935736</v>
+        <v>0.08341472672649886</v>
       </c>
       <c r="F6">
-        <v>5.327651361330481</v>
+        <v>5.296670487371159</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007147062404545744</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01071695043966958</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.555921906652003</v>
+        <v>0.01018663043062773</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.492803415470178</v>
       </c>
       <c r="L6">
-        <v>3.615506556634628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.585069691056788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1287978749016929</v>
+        <v>0.1275186524074599</v>
       </c>
       <c r="D7">
-        <v>0.2983880039808753</v>
+        <v>0.2937446010158595</v>
       </c>
       <c r="E7">
-        <v>0.09109926667844803</v>
+        <v>0.08799337557028863</v>
       </c>
       <c r="F7">
-        <v>5.656330063740427</v>
+        <v>5.616909435263949</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007063987305920646</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01048851675624984</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.9431354403726</v>
+        <v>0.009974714343630176</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.874780520373406</v>
       </c>
       <c r="L7">
-        <v>3.828334600091566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.795179723367511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1651728835377497</v>
+        <v>0.1634024841130639</v>
       </c>
       <c r="D8">
-        <v>0.3959069930048145</v>
+        <v>0.3877371671974856</v>
       </c>
       <c r="E8">
-        <v>0.1129198562712048</v>
+        <v>0.1093604066015779</v>
       </c>
       <c r="F8">
-        <v>7.282622575764691</v>
+        <v>7.20114882356944</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006689204995380604</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009484566307504494</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.758448594413949</v>
+        <v>0.009043822351691766</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.66415751754343</v>
       </c>
       <c r="L8">
-        <v>4.827002491146601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.780330897410067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2558687382439899</v>
+        <v>0.2524214486465155</v>
       </c>
       <c r="D9">
-        <v>0.6702268427110596</v>
+        <v>0.6516376853348902</v>
       </c>
       <c r="E9">
-        <v>0.1650040173377718</v>
+        <v>0.1600677712540381</v>
       </c>
       <c r="F9">
-        <v>11.69630181547382</v>
+        <v>11.48544473178325</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005864809142292542</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.007385583915859861</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>13.07838917172722</v>
+        <v>0.007096412766061988</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.90539170900803</v>
       </c>
       <c r="L9">
-        <v>7.2065336314825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>7.118425833829178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3615307514716335</v>
+        <v>0.3541397524394228</v>
       </c>
       <c r="D10">
-        <v>1.04304455040068</v>
+        <v>1.003581447528205</v>
       </c>
       <c r="E10">
-        <v>0.2240113824129395</v>
+        <v>0.2162380174286476</v>
       </c>
       <c r="F10">
-        <v>17.38578749540244</v>
+        <v>16.90281230918401</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005040536700478597</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005377925309737464</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>17.77559161995634</v>
+        <v>0.005232531956802511</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.43865913440436</v>
       </c>
       <c r="L10">
-        <v>9.790294108669798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9.614870839935804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4691551821944415</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D11">
-        <v>1.484949264572265</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E11">
-        <v>0.2865834210136242</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F11">
-        <v>23.73044928357137</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00382391274118854</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>22.2125987918912</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L11">
-        <v>12.21154033957487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4691551821944415</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D12">
-        <v>1.484949264572265</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E12">
-        <v>0.2865834210136242</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F12">
-        <v>23.73044928357137</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.00382391274118854</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>22.2125987918912</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L12">
-        <v>12.21154033957487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4691551821944415</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D13">
-        <v>1.484949264572265</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E13">
-        <v>0.2865834210136242</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F13">
-        <v>23.73044928357137</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.00382391274118854</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>22.2125987918912</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L13">
-        <v>12.21154033957487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.5461318902153067</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D14">
-        <v>1.846262460105748</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E14">
-        <v>0.3370750987645259</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F14">
-        <v>28.60759163817119</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003350229445551189</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>25.18068775115336</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L14">
-        <v>13.80433911699498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.5812807020367643</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D15">
-        <v>2.02664801469669</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E15">
-        <v>0.3632691185005683</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F15">
-        <v>30.9351058442839</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003494052054335839</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>26.48225338675422</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L15">
-        <v>14.49002036189233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6726277752167249</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D16">
-        <v>2.557395230250648</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E16">
-        <v>0.4490641628710499</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F16">
-        <v>37.33682316505946</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006155152289809313</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>29.73002916124983</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L16">
-        <v>16.13722003605537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7080310910420025</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D17">
-        <v>2.798064706474719</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E17">
-        <v>0.4944775797642329</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F17">
-        <v>40.00018902253174</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.008905800191461977</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>30.9531991699279</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L17">
-        <v>16.71758394336405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7252813900571198</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D18">
-        <v>2.92632616498895</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E18">
-        <v>0.5208933829009936</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F18">
-        <v>41.35270653850409</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01089150978051445</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>31.5484646201152</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L18">
-        <v>16.98718195917442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.730713357637768</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D19">
-        <v>2.968620445543536</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E19">
-        <v>0.5299810093131327</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F19">
-        <v>41.78804022721334</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0116353405827474</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>31.73652352310299</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L19">
-        <v>17.07017696534808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7046205997148434</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D20">
-        <v>2.773671016132084</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E20">
-        <v>0.4896385270778332</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F20">
-        <v>39.73757093808985</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.008571663545266062</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>30.83564537623957</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L20">
-        <v>16.66322765522651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7046205997148434</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D21">
-        <v>2.773671016132084</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E21">
-        <v>0.4896385270778332</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F21">
-        <v>39.73757093808985</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.008571663545266062</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>30.83564537623957</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L21">
-        <v>16.66322765522651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7046205997148434</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D22">
-        <v>2.773671016132084</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E22">
-        <v>0.4896385270778332</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F22">
-        <v>39.73757093808985</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.008571663545266062</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>30.83564537623957</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L22">
-        <v>16.66322765522651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7046205997148434</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D23">
-        <v>2.773671016132084</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E23">
-        <v>0.4896385270778332</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F23">
-        <v>39.73757093808985</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.008571663545266062</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>30.83564537623957</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L23">
-        <v>16.66322765522651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7046205997148434</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D24">
-        <v>2.773671016132084</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E24">
-        <v>0.4896385270778332</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F24">
-        <v>39.73757093808985</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.008571663545266062</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>30.83564537623957</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L24">
-        <v>16.66322765522651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>11.69122912313131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7046205997148434</v>
+        <v>0.4452397199557652</v>
       </c>
       <c r="D25">
-        <v>2.773671016132084</v>
+        <v>1.366002360492644</v>
       </c>
       <c r="E25">
-        <v>0.4896385270778332</v>
+        <v>0.267819884138877</v>
       </c>
       <c r="F25">
-        <v>39.73757093808985</v>
+        <v>22.18134305325742</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004374232919900132</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.008571663545266062</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>30.83564537623957</v>
+        <v>0.003859906050642348</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.23225352489919</v>
       </c>
       <c r="L25">
-        <v>16.66322765522651</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>11.69122912313131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1739923994456376</v>
+        <v>0.1098278126940713</v>
       </c>
       <c r="D2">
-        <v>0.4168986653182429</v>
+        <v>0.1373478419119252</v>
       </c>
       <c r="E2">
-        <v>0.115542967688679</v>
+        <v>0.6088921412843362</v>
       </c>
       <c r="F2">
-        <v>7.685707413587579</v>
+        <v>3.861270313813122</v>
       </c>
       <c r="G2">
-        <v>0.0006584200055529356</v>
+        <v>0.0006148863780066518</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,19 +445,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008789283952104654</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.183038437648605</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.567657421882245</v>
       </c>
       <c r="M2">
-        <v>5.066219052402829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>37.62012049752497</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3.247567213111182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1443499069573448</v>
+        <v>0.0742333722482087</v>
       </c>
       <c r="D3">
-        <v>0.3368807833689971</v>
+        <v>0.06908091605349398</v>
       </c>
       <c r="E3">
-        <v>0.09810199362551586</v>
+        <v>0.4839938798619343</v>
       </c>
       <c r="F3">
-        <v>6.34843564545406</v>
+        <v>2.750570406707809</v>
       </c>
       <c r="G3">
-        <v>0.0006884214344938321</v>
+        <v>0.0006604325545377376</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,19 +492,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009523429504624481</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.720224781843484</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.265189961925699</v>
       </c>
       <c r="M3">
-        <v>4.26047985559768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>30.77372092888112</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.27052425641088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1276079712013711</v>
+        <v>0.06120253505359585</v>
       </c>
       <c r="D4">
-        <v>0.2939689132673919</v>
+        <v>0.04413723960779947</v>
       </c>
       <c r="E4">
-        <v>0.08804746088509319</v>
+        <v>0.4212957318407931</v>
       </c>
       <c r="F4">
-        <v>5.620734395087851</v>
+        <v>2.266972139171841</v>
       </c>
       <c r="G4">
-        <v>0.0007063012446342347</v>
+        <v>0.0006851232020859141</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,19 +539,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00997224085982662</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.879296677665877</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.108292316674834</v>
       </c>
       <c r="M4">
-        <v>3.797664337513055</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.14004815188781</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.852241051193573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1210600085166647</v>
+        <v>0.0572228054363535</v>
       </c>
       <c r="D5">
-        <v>0.2776583536087287</v>
+        <v>0.03654169150863495</v>
       </c>
       <c r="E5">
-        <v>0.08406917915514001</v>
+        <v>0.3978552016251484</v>
       </c>
       <c r="F5">
-        <v>5.342008839946601</v>
+        <v>2.10056137668424</v>
       </c>
       <c r="G5">
-        <v>0.0007135120260737268</v>
+        <v>0.0006947210984270967</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,19 +586,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01015602677633609</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.547358139781892</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.04871935359273</v>
       </c>
       <c r="M5">
-        <v>3.615073183056978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.74641926677788</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.709799395494969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1199871431730202</v>
+        <v>0.05662655165635755</v>
       </c>
       <c r="D6">
-        <v>0.275012036914859</v>
+        <v>0.03540533050998462</v>
       </c>
       <c r="E6">
-        <v>0.08341472672649886</v>
+        <v>0.3940648604526302</v>
       </c>
       <c r="F6">
-        <v>5.296670487371159</v>
+        <v>2.074432720014073</v>
       </c>
       <c r="G6">
-        <v>0.0007147062404545744</v>
+        <v>0.0006962934004850506</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,19 +633,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01018663043062773</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.492803415470178</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.039038387832704</v>
       </c>
       <c r="M6">
-        <v>3.585069691056788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.51923577750364</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.687519768908913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1275186524074599</v>
+        <v>0.06114423508526556</v>
       </c>
       <c r="D7">
-        <v>0.2937446010158595</v>
+        <v>0.04402585747106968</v>
       </c>
       <c r="E7">
-        <v>0.08799337557028863</v>
+        <v>0.4209722857462666</v>
       </c>
       <c r="F7">
-        <v>5.616909435263949</v>
+        <v>2.26462042769478</v>
       </c>
       <c r="G7">
-        <v>0.0007063987305920646</v>
+        <v>0.0006852542046422716</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,19 +680,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.009974714343630176</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.874780520373406</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.1074737424332</v>
       </c>
       <c r="M7">
-        <v>3.795179723367511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>27.12094997579959</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.850221932160167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1634024841130639</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D8">
-        <v>0.3877371671974856</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E8">
-        <v>0.1093604066015779</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F8">
-        <v>7.20114882356944</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G8">
-        <v>0.0006689204995380604</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,19 +727,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.009043822351691766</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8.66415751754343</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M8">
-        <v>4.780330897410067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2524214486465155</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D9">
-        <v>0.6516376853348902</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E9">
-        <v>0.1600677712540381</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F9">
-        <v>11.48544473178325</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G9">
-        <v>0.0005864809142292542</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,19 +774,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.007096412766061988</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12.90539170900803</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M9">
-        <v>7.118425833829178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3541397524394228</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D10">
-        <v>1.003581447528205</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E10">
-        <v>0.2162380174286476</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F10">
-        <v>16.90281230918401</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G10">
-        <v>0.0005040536700478597</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,19 +821,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.005232531956802511</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.43865913440436</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M10">
-        <v>9.614870839935804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D11">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E11">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F11">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G11">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,19 +868,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M11">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D12">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E12">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F12">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G12">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,19 +915,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M12">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D13">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E13">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F13">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G13">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,19 +962,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M13">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D14">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E14">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F14">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G14">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,19 +1009,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M14">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D15">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E15">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F15">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G15">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,19 +1056,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M15">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D16">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E16">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F16">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G16">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,19 +1103,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M16">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D17">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E17">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F17">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G17">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,19 +1150,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M17">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D18">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E18">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F18">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G18">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,19 +1197,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M18">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D19">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E19">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F19">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G19">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,19 +1244,25 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M19">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D20">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E20">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F20">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G20">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,19 +1291,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M20">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D21">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E21">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F21">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G21">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,19 +1338,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M21">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D22">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E22">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F22">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G22">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,19 +1385,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M22">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D23">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E23">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F23">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G23">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,19 +1432,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M23">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D24">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E24">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F24">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G24">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,19 +1479,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M24">
-        <v>11.69122912313131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.857333631394539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4452397199557652</v>
+        <v>0.09492697642114223</v>
       </c>
       <c r="D25">
-        <v>1.366002360492644</v>
+        <v>0.1087684822188208</v>
       </c>
       <c r="E25">
-        <v>0.267819884138877</v>
+        <v>0.5616755947982455</v>
       </c>
       <c r="F25">
-        <v>22.18134305325742</v>
+        <v>3.420106479778269</v>
       </c>
       <c r="G25">
-        <v>0.0004374232919900132</v>
+        <v>0.0006315866105683002</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.003859906050642348</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>21.23225352489919</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.454842982211574</v>
       </c>
       <c r="M25">
-        <v>11.69122912313131</v>
+        <v>35.09191811216562</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.857333631394539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1098278126940713</v>
+        <v>0.1414025644086507</v>
       </c>
       <c r="D2">
-        <v>0.1373478419119252</v>
+        <v>0.04446030157154723</v>
       </c>
       <c r="E2">
-        <v>0.6088921412843362</v>
+        <v>0.05261312306887156</v>
       </c>
       <c r="F2">
-        <v>3.861270313813122</v>
+        <v>1.401202829520855</v>
       </c>
       <c r="G2">
-        <v>0.0006148863780066518</v>
+        <v>1.16414487894626</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7211667567998603</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07154323250799166</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.524674269591742</v>
       </c>
       <c r="L2">
-        <v>1.567657421882245</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>37.62012049752497</v>
+        <v>0.7465968765983888</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7776294031522957</v>
       </c>
       <c r="O2">
-        <v>3.247567213111182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0742333722482087</v>
+        <v>0.1220463640252376</v>
       </c>
       <c r="D3">
-        <v>0.06908091605349398</v>
+        <v>0.04092171602206918</v>
       </c>
       <c r="E3">
-        <v>0.4839938798619343</v>
+        <v>0.05001221778393194</v>
       </c>
       <c r="F3">
-        <v>2.750570406707809</v>
+        <v>1.305367766733383</v>
       </c>
       <c r="G3">
-        <v>0.0006604325545377376</v>
+        <v>1.071892038255399</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6873159808183402</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06929892315318753</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.053985566261076</v>
       </c>
       <c r="L3">
-        <v>1.265189961925699</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>30.77372092888112</v>
+        <v>0.6511052368220973</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.830245003638276</v>
       </c>
       <c r="O3">
-        <v>2.27052425641088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06120253505359585</v>
+        <v>0.1103147874926549</v>
       </c>
       <c r="D4">
-        <v>0.04413723960779947</v>
+        <v>0.03877239628286588</v>
       </c>
       <c r="E4">
-        <v>0.4212957318407931</v>
+        <v>0.04848094630485633</v>
       </c>
       <c r="F4">
-        <v>2.266972139171841</v>
+        <v>1.249649958796283</v>
       </c>
       <c r="G4">
-        <v>0.0006851232020859141</v>
+        <v>1.018161935814376</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6681409273540737</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06805408982969041</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.767608154012322</v>
       </c>
       <c r="L4">
-        <v>1.108292316674834</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>27.14004815188781</v>
+        <v>0.593141600640358</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.8639213877605325</v>
       </c>
       <c r="O4">
-        <v>1.852241051193573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0572228054363535</v>
+        <v>0.1055672459898744</v>
       </c>
       <c r="D5">
-        <v>0.03654169150863495</v>
+        <v>0.03790195315662359</v>
       </c>
       <c r="E5">
-        <v>0.3978552016251484</v>
+        <v>0.04787254490965864</v>
       </c>
       <c r="F5">
-        <v>2.10056137668424</v>
+        <v>1.227671217641984</v>
       </c>
       <c r="G5">
-        <v>0.0006947210984270967</v>
+        <v>0.9969395658388152</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6607041218090899</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06757836885875079</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.651469231836245</v>
       </c>
       <c r="L5">
-        <v>1.04871935359273</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>25.74641926677788</v>
+        <v>0.5696681479491161</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8779781157706461</v>
       </c>
       <c r="O5">
-        <v>1.709799395494969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05662655165635755</v>
+        <v>0.1047807741652633</v>
       </c>
       <c r="D6">
-        <v>0.03540533050998462</v>
+        <v>0.03775773155409468</v>
       </c>
       <c r="E6">
-        <v>0.3940648604526302</v>
+        <v>0.04777243717064827</v>
       </c>
       <c r="F6">
-        <v>2.074432720014073</v>
+        <v>1.22406390389844</v>
       </c>
       <c r="G6">
-        <v>0.0006962934004850506</v>
+        <v>0.9934545973904108</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6594912584498047</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06750122782723977</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.632215663946766</v>
       </c>
       <c r="L6">
-        <v>1.039038387832704</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>25.51923577750364</v>
+        <v>0.5657787059388184</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8803320442826186</v>
       </c>
       <c r="O6">
-        <v>1.687519768908913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06114423508526556</v>
+        <v>0.1102506329909403</v>
       </c>
       <c r="D7">
-        <v>0.04402585747106968</v>
+        <v>0.03876063580638345</v>
       </c>
       <c r="E7">
-        <v>0.4209722857462666</v>
+        <v>0.04847267917537756</v>
       </c>
       <c r="F7">
-        <v>2.26462042769478</v>
+        <v>1.24935067857426</v>
       </c>
       <c r="G7">
-        <v>0.0006852542046422716</v>
+        <v>1.017873073910394</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.668039139769661</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06804754876736041</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.766039712555653</v>
       </c>
       <c r="L7">
-        <v>1.1074737424332</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>27.12094997579959</v>
+        <v>0.5928244600214327</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.864109626304332</v>
       </c>
       <c r="O7">
-        <v>1.850221932160167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09492697642114223</v>
+        <v>0.1346934038808314</v>
       </c>
       <c r="D8">
-        <v>0.1087684822188208</v>
+        <v>0.04323505410350492</v>
       </c>
       <c r="E8">
-        <v>0.5616755947982455</v>
+        <v>0.05170212473155544</v>
       </c>
       <c r="F8">
-        <v>3.420106479778269</v>
+        <v>1.36747329646407</v>
       </c>
       <c r="G8">
-        <v>0.0006315866105683002</v>
+        <v>1.131694212521452</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7091437725409833</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07074054832936838</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.361773826051035</v>
       </c>
       <c r="L8">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>35.09191811216562</v>
+        <v>0.7135194878978268</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7954798791505597</v>
       </c>
       <c r="O8">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09492697642114223</v>
+        <v>0.1841048370936988</v>
       </c>
       <c r="D9">
-        <v>0.1087684822188208</v>
+        <v>0.05221820503398078</v>
       </c>
       <c r="E9">
-        <v>0.5616755947982455</v>
+        <v>0.05860128997569092</v>
       </c>
       <c r="F9">
-        <v>3.420106479778269</v>
+        <v>1.62681535786966</v>
       </c>
       <c r="G9">
-        <v>0.0006315866105683002</v>
+        <v>1.380939678573128</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.8038725805290881</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07717281990210267</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.555740673918194</v>
       </c>
       <c r="L9">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>35.09191811216562</v>
+        <v>0.9565442918503635</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6723150975242724</v>
       </c>
       <c r="O9">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09492697642114223</v>
+        <v>0.221712695360452</v>
       </c>
       <c r="D10">
-        <v>0.1087684822188208</v>
+        <v>0.05898205207121521</v>
       </c>
       <c r="E10">
-        <v>0.5616755947982455</v>
+        <v>0.06408395254389987</v>
       </c>
       <c r="F10">
-        <v>3.420106479778269</v>
+        <v>1.838686901650306</v>
       </c>
       <c r="G10">
-        <v>0.0006315866105683002</v>
+        <v>1.584411336201498</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.8841486521830575</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08274461526025334</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.456176623021918</v>
       </c>
       <c r="L10">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>35.09191811216562</v>
+        <v>1.140558226911111</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5896151068812685</v>
       </c>
       <c r="O10">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09492697642114223</v>
+        <v>0.2392054015754468</v>
       </c>
       <c r="D11">
-        <v>0.1087684822188208</v>
+        <v>0.06210400323423926</v>
       </c>
       <c r="E11">
-        <v>0.5616755947982455</v>
+        <v>0.06668504430001576</v>
       </c>
       <c r="F11">
-        <v>3.420106479778269</v>
+        <v>1.940815701979389</v>
       </c>
       <c r="G11">
-        <v>0.0006315866105683002</v>
+        <v>1.682514490054132</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.9235051442322231</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08549894681735282</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5.872742657427182</v>
       </c>
       <c r="L11">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>35.09191811216562</v>
+        <v>1.225856953430693</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.553891811902318</v>
       </c>
       <c r="O11">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09492697642114223</v>
+        <v>0.2458940874197708</v>
       </c>
       <c r="D12">
-        <v>0.1087684822188208</v>
+        <v>0.06329354897806638</v>
       </c>
       <c r="E12">
-        <v>0.5616755947982455</v>
+        <v>0.0676869713042727</v>
       </c>
       <c r="F12">
-        <v>3.420106479778269</v>
+        <v>1.98041968337796</v>
       </c>
       <c r="G12">
-        <v>0.0006315866105683002</v>
+        <v>1.720565632715903</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.9388652107873554</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08657688047300383</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.031661216639293</v>
       </c>
       <c r="L12">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>35.09191811216562</v>
+        <v>1.258423129572122</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.5406569395011154</v>
       </c>
       <c r="O12">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09492697642114223</v>
+        <v>0.2444505291415879</v>
       </c>
       <c r="D13">
-        <v>0.1087684822188208</v>
+        <v>0.0630370183235982</v>
       </c>
       <c r="E13">
-        <v>0.5616755947982455</v>
+        <v>0.06747040792734538</v>
       </c>
       <c r="F13">
-        <v>3.420106479778269</v>
+        <v>1.971847124104499</v>
       </c>
       <c r="G13">
-        <v>0.0006315866105683002</v>
+        <v>1.712328750848968</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.9355360087181452</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08634311782109449</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5.997380065072207</v>
       </c>
       <c r="L13">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>35.09191811216562</v>
+        <v>1.251396988371994</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.5434939447205043</v>
       </c>
       <c r="O13">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09492697642114223</v>
+        <v>0.2397543330147727</v>
       </c>
       <c r="D14">
-        <v>0.1087684822188208</v>
+        <v>0.06220171571743549</v>
       </c>
       <c r="E14">
-        <v>0.5616755947982455</v>
+        <v>0.06676712420881614</v>
       </c>
       <c r="F14">
-        <v>3.420106479778269</v>
+        <v>1.944054672932396</v>
       </c>
       <c r="G14">
-        <v>0.0006315866105683002</v>
+        <v>1.685626271103018</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.9247593783573791</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.08558690868919427</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5.885792387012202</v>
       </c>
       <c r="L14">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>35.09191811216562</v>
+        <v>1.228530648366601</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.5527969816858018</v>
       </c>
       <c r="O14">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.09492697642114223</v>
+        <v>0.2368864786944442</v>
       </c>
       <c r="D15">
-        <v>0.1087684822188208</v>
+        <v>0.0616910504405368</v>
       </c>
       <c r="E15">
-        <v>0.5616755947982455</v>
+        <v>0.06633859913489815</v>
       </c>
       <c r="F15">
-        <v>3.420106479778269</v>
+        <v>1.927155375596755</v>
       </c>
       <c r="G15">
-        <v>0.0006315866105683002</v>
+        <v>1.669390945190514</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.9182193745373013</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08512836244091915</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.817600103927305</v>
       </c>
       <c r="L15">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>35.09191811216562</v>
+        <v>1.214560077459822</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.5585341152311933</v>
       </c>
       <c r="O15">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09492697642114223</v>
+        <v>0.2205780165681404</v>
       </c>
       <c r="D16">
-        <v>0.1087684822188208</v>
+        <v>0.05877900233424072</v>
       </c>
       <c r="E16">
-        <v>0.5616755947982455</v>
+        <v>0.06391624829608133</v>
       </c>
       <c r="F16">
-        <v>3.420106479778269</v>
+        <v>1.832136797513385</v>
       </c>
       <c r="G16">
-        <v>0.0006315866105683002</v>
+        <v>1.578120283090982</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8816377533806872</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08256931137488266</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.429107430486624</v>
       </c>
       <c r="L16">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>35.09191811216562</v>
+        <v>1.135018801435862</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.5919895430073616</v>
       </c>
       <c r="O16">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09492697642114223</v>
+        <v>0.2106781232761108</v>
       </c>
       <c r="D17">
-        <v>0.1087684822188208</v>
+        <v>0.05700466865371112</v>
       </c>
       <c r="E17">
-        <v>0.5616755947982455</v>
+        <v>0.06245868379360076</v>
       </c>
       <c r="F17">
-        <v>3.420106479778269</v>
+        <v>1.775388276504884</v>
       </c>
       <c r="G17">
-        <v>0.0006315866105683002</v>
+        <v>1.523619258758629</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.8599559743063878</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08105795213857903</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.192678731422802</v>
       </c>
       <c r="L17">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>35.09191811216562</v>
+        <v>1.086654959006744</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6130128418564507</v>
       </c>
       <c r="O17">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09492697642114223</v>
+        <v>0.2050195681094777</v>
       </c>
       <c r="D18">
-        <v>0.1087684822188208</v>
+        <v>0.05598830191461701</v>
       </c>
       <c r="E18">
-        <v>0.5616755947982455</v>
+        <v>0.0616303002488614</v>
       </c>
       <c r="F18">
-        <v>3.420106479778269</v>
+        <v>1.743282178549677</v>
       </c>
       <c r="G18">
-        <v>0.0006315866105683002</v>
+        <v>1.492786543603529</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.8477491690100578</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0802091177559987</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.0573341782694</v>
       </c>
       <c r="L18">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>35.09191811216562</v>
+        <v>1.058984578823733</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.625282162102593</v>
       </c>
       <c r="O18">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09492697642114223</v>
+        <v>0.2031095265946448</v>
       </c>
       <c r="D19">
-        <v>0.1087684822188208</v>
+        <v>0.05564487161799292</v>
       </c>
       <c r="E19">
-        <v>0.5616755947982455</v>
+        <v>0.06135149088885328</v>
       </c>
       <c r="F19">
-        <v>3.420106479778269</v>
+        <v>1.732500368697387</v>
       </c>
       <c r="G19">
-        <v>0.0006315866105683002</v>
+        <v>1.482432534214439</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.8436601012988376</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07992513485339003</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.011614266857805</v>
       </c>
       <c r="L19">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>35.09191811216562</v>
+        <v>1.049640091747484</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6294662171682059</v>
       </c>
       <c r="O19">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09492697642114223</v>
+        <v>0.2117282351873939</v>
       </c>
       <c r="D20">
-        <v>0.1087684822188208</v>
+        <v>0.05719311070110678</v>
       </c>
       <c r="E20">
-        <v>0.5616755947982455</v>
+        <v>0.06261280144250492</v>
       </c>
       <c r="F20">
-        <v>3.420106479778269</v>
+        <v>1.781373255890287</v>
       </c>
       <c r="G20">
-        <v>0.0006315866105683002</v>
+        <v>1.529366981021298</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.8622363813945526</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.081216698361402</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.217779222126012</v>
       </c>
       <c r="L20">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>35.09191811216562</v>
+        <v>1.091787881658398</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6107563909251041</v>
       </c>
       <c r="O20">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09492697642114223</v>
+        <v>0.2411318883602291</v>
       </c>
       <c r="D21">
-        <v>0.1087684822188208</v>
+        <v>0.0624468580919455</v>
       </c>
       <c r="E21">
-        <v>0.5616755947982455</v>
+        <v>0.06697322241138437</v>
       </c>
       <c r="F21">
-        <v>3.420106479778269</v>
+        <v>1.952191867592262</v>
       </c>
       <c r="G21">
-        <v>0.0006315866105683002</v>
+        <v>1.693444076994837</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.9279119308598069</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08580804936094211</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5.918535045898921</v>
       </c>
       <c r="L21">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>35.09191811216562</v>
+        <v>1.235239530785122</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.55005633909858</v>
       </c>
       <c r="O21">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09492697642114223</v>
+        <v>0.2607303132662508</v>
       </c>
       <c r="D22">
-        <v>0.1087684822188208</v>
+        <v>0.06592368458525044</v>
       </c>
       <c r="E22">
-        <v>0.5616755947982455</v>
+        <v>0.06992265173320433</v>
       </c>
       <c r="F22">
-        <v>3.420106479778269</v>
+        <v>2.069309061236382</v>
       </c>
       <c r="G22">
-        <v>0.0006315866105683002</v>
+        <v>1.805990292071158</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.973522676305123</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08901416134661133</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.383457895981451</v>
       </c>
       <c r="L22">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>35.09191811216562</v>
+        <v>1.330560485915299</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5121026612710828</v>
       </c>
       <c r="O22">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09492697642114223</v>
+        <v>0.2502320411595349</v>
       </c>
       <c r="D23">
-        <v>0.1087684822188208</v>
+        <v>0.06406377541166108</v>
       </c>
       <c r="E23">
-        <v>0.5616755947982455</v>
+        <v>0.06833880920822466</v>
       </c>
       <c r="F23">
-        <v>3.420106479778269</v>
+        <v>2.006262992777266</v>
       </c>
       <c r="G23">
-        <v>0.0006315866105683002</v>
+        <v>1.745398558325519</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.9489159776037184</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.08728300829070434</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.134622249858069</v>
       </c>
       <c r="L23">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>35.09191811216562</v>
+        <v>1.279529291059887</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5321949550169727</v>
       </c>
       <c r="O23">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09492697642114223</v>
+        <v>0.2112533774130014</v>
       </c>
       <c r="D24">
-        <v>0.1087684822188208</v>
+        <v>0.05710790452350523</v>
       </c>
       <c r="E24">
-        <v>0.5616755947982455</v>
+        <v>0.06254309509980516</v>
       </c>
       <c r="F24">
-        <v>3.420106479778269</v>
+        <v>1.778665836636449</v>
       </c>
       <c r="G24">
-        <v>0.0006315866105683002</v>
+        <v>1.526766884133963</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8612046082795359</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08114486694014289</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.206429492099176</v>
       </c>
       <c r="L24">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>35.09191811216562</v>
+        <v>1.089466870692888</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6117759646596106</v>
       </c>
       <c r="O24">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09492697642114223</v>
+        <v>0.17053995105654</v>
       </c>
       <c r="D25">
-        <v>0.1087684822188208</v>
+        <v>0.04976211804780917</v>
       </c>
       <c r="E25">
-        <v>0.5616755947982455</v>
+        <v>0.05666754518490791</v>
       </c>
       <c r="F25">
-        <v>3.420106479778269</v>
+        <v>1.553257116278616</v>
       </c>
       <c r="G25">
-        <v>0.0006315866105683002</v>
+        <v>1.310287870330399</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7765323052946087</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07529538361702492</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.229251140050906</v>
       </c>
       <c r="L25">
-        <v>1.454842982211574</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>35.09191811216562</v>
+        <v>0.8899648832543505</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7043314759613084</v>
       </c>
       <c r="O25">
-        <v>2.857333631394539</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1414025644086507</v>
+        <v>0.04806415330644143</v>
       </c>
       <c r="D2">
-        <v>0.04446030157154723</v>
+        <v>0.09433389003166326</v>
       </c>
       <c r="E2">
-        <v>0.05261312306887156</v>
+        <v>0.1126764088172365</v>
       </c>
       <c r="F2">
-        <v>1.401202829520855</v>
+        <v>2.101210578912017</v>
       </c>
       <c r="G2">
-        <v>1.16414487894626</v>
+        <v>1.470874964997947</v>
       </c>
       <c r="H2">
-        <v>0.7211667567998603</v>
+        <v>1.322835871731598</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07154323250799166</v>
+        <v>0.153413385524626</v>
       </c>
       <c r="K2">
-        <v>3.524674269591742</v>
+        <v>1.579846439231574</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7465968765983888</v>
+        <v>0.4789933877275772</v>
       </c>
       <c r="N2">
-        <v>0.7776294031522957</v>
+        <v>1.62875754539281</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1220463640252376</v>
+        <v>0.04273327228797541</v>
       </c>
       <c r="D3">
-        <v>0.04092171602206918</v>
+        <v>0.09365309735122906</v>
       </c>
       <c r="E3">
-        <v>0.05001221778393194</v>
+        <v>0.112628111743879</v>
       </c>
       <c r="F3">
-        <v>1.305367766733383</v>
+        <v>2.094167621395798</v>
       </c>
       <c r="G3">
-        <v>1.071892038255399</v>
+        <v>1.460794342100428</v>
       </c>
       <c r="H3">
-        <v>0.6873159808183402</v>
+        <v>1.324659984804342</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06929892315318753</v>
+        <v>0.1539073061327443</v>
       </c>
       <c r="K3">
-        <v>3.053985566261076</v>
+        <v>1.453637886189426</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6511052368220973</v>
+        <v>0.4551671866045339</v>
       </c>
       <c r="N3">
-        <v>0.830245003638276</v>
+        <v>1.649415010051476</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1103147874926549</v>
+        <v>0.03947702808072506</v>
       </c>
       <c r="D4">
-        <v>0.03877239628286588</v>
+        <v>0.09325481736216901</v>
       </c>
       <c r="E4">
-        <v>0.04848094630485633</v>
+        <v>0.1126393877610958</v>
       </c>
       <c r="F4">
-        <v>1.249649958796283</v>
+        <v>2.091119198627311</v>
       </c>
       <c r="G4">
-        <v>1.018161935814376</v>
+        <v>1.455643872537124</v>
       </c>
       <c r="H4">
-        <v>0.6681409273540737</v>
+        <v>1.326500421825997</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06805408982969041</v>
+        <v>0.1542801048651512</v>
       </c>
       <c r="K4">
-        <v>2.767608154012322</v>
+        <v>1.376727107748167</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.593141600640358</v>
+        <v>0.4407586108317645</v>
       </c>
       <c r="N4">
-        <v>0.8639213877605325</v>
+        <v>1.662728356794245</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1055672459898744</v>
+        <v>0.0381542725570938</v>
       </c>
       <c r="D5">
-        <v>0.03790195315662359</v>
+        <v>0.09309750690345098</v>
       </c>
       <c r="E5">
-        <v>0.04787254490965864</v>
+        <v>0.1126542895426059</v>
       </c>
       <c r="F5">
-        <v>1.227671217641984</v>
+        <v>2.090197141497612</v>
       </c>
       <c r="G5">
-        <v>0.9969395658388152</v>
+        <v>1.453805416754307</v>
       </c>
       <c r="H5">
-        <v>0.6607041218090899</v>
+        <v>1.327431307673081</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06757836885875079</v>
+        <v>0.1544494995946444</v>
       </c>
       <c r="K5">
-        <v>2.651469231836245</v>
+        <v>1.345531788216135</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5696681479491161</v>
+        <v>0.4349425865951488</v>
       </c>
       <c r="N5">
-        <v>0.8779781157706461</v>
+        <v>1.668311857775175</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1047807741652633</v>
+        <v>0.03793488110241583</v>
       </c>
       <c r="D6">
-        <v>0.03775773155409468</v>
+        <v>0.09307168802837396</v>
       </c>
       <c r="E6">
-        <v>0.04777243717064827</v>
+        <v>0.1126573868996612</v>
       </c>
       <c r="F6">
-        <v>1.22406390389844</v>
+        <v>2.09006335486724</v>
       </c>
       <c r="G6">
-        <v>0.9934545973904108</v>
+        <v>1.453515844587812</v>
       </c>
       <c r="H6">
-        <v>0.6594912584498047</v>
+        <v>1.327596798407697</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06750122782723977</v>
+        <v>0.1544786827684135</v>
       </c>
       <c r="K6">
-        <v>2.632215663946766</v>
+        <v>1.340360679276557</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5657787059388184</v>
+        <v>0.4339801995227006</v>
       </c>
       <c r="N6">
-        <v>0.8803320442826186</v>
+        <v>1.669248545912467</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1102506329909403</v>
+        <v>0.03945917206075933</v>
       </c>
       <c r="D7">
-        <v>0.03876063580638345</v>
+        <v>0.0932526755650116</v>
       </c>
       <c r="E7">
-        <v>0.04847267917537756</v>
+        <v>0.1126395469808177</v>
       </c>
       <c r="F7">
-        <v>1.24935067857426</v>
+        <v>2.091105467842183</v>
       </c>
       <c r="G7">
-        <v>1.017873073910394</v>
+        <v>1.455618025291898</v>
       </c>
       <c r="H7">
-        <v>0.668039139769661</v>
+        <v>1.326512244007418</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06804754876736041</v>
+        <v>0.154282318631207</v>
       </c>
       <c r="K7">
-        <v>2.766039712555653</v>
+        <v>1.376305803585069</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5928244600214327</v>
+        <v>0.4406799487372552</v>
       </c>
       <c r="N7">
-        <v>0.864109626304332</v>
+        <v>1.662803017429631</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1346934038808314</v>
+        <v>0.0462225068562816</v>
       </c>
       <c r="D8">
-        <v>0.04323505410350492</v>
+        <v>0.09409507589378308</v>
       </c>
       <c r="E8">
-        <v>0.05170212473155544</v>
+        <v>0.1126512691655517</v>
       </c>
       <c r="F8">
-        <v>1.36747329646407</v>
+        <v>2.098516932392471</v>
       </c>
       <c r="G8">
-        <v>1.131694212521452</v>
+        <v>1.467182967244185</v>
       </c>
       <c r="H8">
-        <v>0.7091437725409833</v>
+        <v>1.323315139131225</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07074054832936838</v>
+        <v>0.1535692536676869</v>
       </c>
       <c r="K8">
-        <v>3.361773826051035</v>
+        <v>1.536209026079803</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7135194878978268</v>
+        <v>0.4707323133521939</v>
       </c>
       <c r="N8">
-        <v>0.7954798791505597</v>
+        <v>1.635749505463997</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1841048370936988</v>
+        <v>0.05962356624128518</v>
       </c>
       <c r="D9">
-        <v>0.05221820503398078</v>
+        <v>0.09590235504150257</v>
       </c>
       <c r="E9">
-        <v>0.05860128997569092</v>
+        <v>0.1129985049790534</v>
       </c>
       <c r="F9">
-        <v>1.62681535786966</v>
+        <v>2.123208664910436</v>
       </c>
       <c r="G9">
-        <v>1.380939678573128</v>
+        <v>1.498149617904772</v>
       </c>
       <c r="H9">
-        <v>0.8038725805290881</v>
+        <v>1.322775341431623</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07717281990210267</v>
+        <v>0.1527230833782802</v>
       </c>
       <c r="K9">
-        <v>4.555740673918194</v>
+        <v>1.854406384229776</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9565442918503635</v>
+        <v>0.5314178540625178</v>
       </c>
       <c r="N9">
-        <v>0.6723150975242724</v>
+        <v>1.587697240566941</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.221712695360452</v>
+        <v>0.06955977577099759</v>
       </c>
       <c r="D10">
-        <v>0.05898205207121521</v>
+        <v>0.09732344005478666</v>
       </c>
       <c r="E10">
-        <v>0.06408395254389987</v>
+        <v>0.1134507637158606</v>
       </c>
       <c r="F10">
-        <v>1.838686901650306</v>
+        <v>2.147594310101084</v>
       </c>
       <c r="G10">
-        <v>1.584411336201498</v>
+        <v>1.526018242556745</v>
       </c>
       <c r="H10">
-        <v>0.8841486521830575</v>
+        <v>1.325892677077263</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08274461526025334</v>
+        <v>0.1524388253906324</v>
       </c>
       <c r="K10">
-        <v>5.456176623021918</v>
+        <v>2.091049401603698</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.140558226911111</v>
+        <v>0.5770789296284136</v>
       </c>
       <c r="N10">
-        <v>0.5896151068812685</v>
+        <v>1.555445793669024</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2392054015754468</v>
+        <v>0.07410105570008341</v>
       </c>
       <c r="D11">
-        <v>0.06210400323423926</v>
+        <v>0.09798989955769599</v>
       </c>
       <c r="E11">
-        <v>0.06668504430001576</v>
+        <v>0.1136992199081845</v>
       </c>
       <c r="F11">
-        <v>1.940815701979389</v>
+        <v>2.16005565747615</v>
       </c>
       <c r="G11">
-        <v>1.682514490054132</v>
+        <v>1.539822018105411</v>
       </c>
       <c r="H11">
-        <v>0.9235051442322231</v>
+        <v>1.328078588575949</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08549894681735282</v>
+        <v>0.1523829728534096</v>
       </c>
       <c r="K11">
-        <v>5.872742657427182</v>
+        <v>2.19933719099663</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.225856953430693</v>
+        <v>0.598086705113019</v>
       </c>
       <c r="N11">
-        <v>0.553891811902318</v>
+        <v>1.541437688631476</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2458940874197708</v>
+        <v>0.07582386788264728</v>
       </c>
       <c r="D12">
-        <v>0.06329354897806638</v>
+        <v>0.09824511940898617</v>
       </c>
       <c r="E12">
-        <v>0.0676869713042727</v>
+        <v>0.1137994365551869</v>
       </c>
       <c r="F12">
-        <v>1.98041968337796</v>
+        <v>2.164972053843798</v>
       </c>
       <c r="G12">
-        <v>1.720565632715903</v>
+        <v>1.545212181906095</v>
       </c>
       <c r="H12">
-        <v>0.9388652107873554</v>
+        <v>1.329017105162109</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08657688047300383</v>
+        <v>0.1523724002204006</v>
       </c>
       <c r="K12">
-        <v>6.031661216639293</v>
+        <v>2.240435011418811</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.258423129572122</v>
+        <v>0.6060758278657801</v>
       </c>
       <c r="N12">
-        <v>0.5406569395011154</v>
+        <v>1.536228702149288</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2444505291415879</v>
+        <v>0.07545268917372994</v>
       </c>
       <c r="D13">
-        <v>0.0630370183235982</v>
+        <v>0.09819002714074543</v>
       </c>
       <c r="E13">
-        <v>0.06747040792734538</v>
+        <v>0.1137775805814201</v>
       </c>
       <c r="F13">
-        <v>1.971847124104499</v>
+        <v>2.163904420628228</v>
       </c>
       <c r="G13">
-        <v>1.712328750848968</v>
+        <v>1.544044048936456</v>
       </c>
       <c r="H13">
-        <v>0.9355360087181452</v>
+        <v>1.328810047175551</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08634311782109449</v>
+        <v>0.1523742065553435</v>
       </c>
       <c r="K13">
-        <v>5.997380065072207</v>
+        <v>2.231579788817044</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.251396988371994</v>
+        <v>0.604353718840855</v>
       </c>
       <c r="N13">
-        <v>0.5434939447205043</v>
+        <v>1.537346296336642</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2397543330147727</v>
+        <v>0.07424272938717991</v>
       </c>
       <c r="D14">
-        <v>0.06220171571743549</v>
+        <v>0.09801083977832548</v>
       </c>
       <c r="E14">
-        <v>0.06676712420881614</v>
+        <v>0.1137073419696257</v>
       </c>
       <c r="F14">
-        <v>1.944054672932396</v>
+        <v>2.160456168404764</v>
       </c>
       <c r="G14">
-        <v>1.685626271103018</v>
+        <v>1.540262197975039</v>
       </c>
       <c r="H14">
-        <v>0.9247593783573791</v>
+        <v>1.328153579107692</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08558690868919427</v>
+        <v>0.1523818909635963</v>
       </c>
       <c r="K14">
-        <v>5.885792387012202</v>
+        <v>2.202716498510085</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.228530648366601</v>
+        <v>0.5987432952247218</v>
       </c>
       <c r="N14">
-        <v>0.5527969816858018</v>
+        <v>1.541007225432168</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2368864786944442</v>
+        <v>0.07350200360548342</v>
       </c>
       <c r="D15">
-        <v>0.0616910504405368</v>
+        <v>0.09790145210804013</v>
       </c>
       <c r="E15">
-        <v>0.06633859913489815</v>
+        <v>0.1136651169771525</v>
       </c>
       <c r="F15">
-        <v>1.927155375596755</v>
+        <v>2.15836976598213</v>
       </c>
       <c r="G15">
-        <v>1.669390945190514</v>
+        <v>1.537966959680404</v>
       </c>
       <c r="H15">
-        <v>0.9182193745373013</v>
+        <v>1.327765908005802</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08512836244091915</v>
+        <v>0.1523879758229256</v>
       </c>
       <c r="K15">
-        <v>5.817600103927305</v>
+        <v>2.185048823751629</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.214560077459822</v>
+        <v>0.5953111666072886</v>
       </c>
       <c r="N15">
-        <v>0.5585341152311933</v>
+        <v>1.543262103629957</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2205780165681404</v>
+        <v>0.06926342620830894</v>
       </c>
       <c r="D16">
-        <v>0.05877900233424072</v>
+        <v>0.09728028525446319</v>
       </c>
       <c r="E16">
-        <v>0.06391624829608133</v>
+        <v>0.1134353851855394</v>
       </c>
       <c r="F16">
-        <v>1.832136797513385</v>
+        <v>2.146807532331081</v>
       </c>
       <c r="G16">
-        <v>1.578120283090982</v>
+        <v>1.525138882997908</v>
       </c>
       <c r="H16">
-        <v>0.8816377533806872</v>
+        <v>1.325765302729565</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08256931137488266</v>
+        <v>0.1524439548633012</v>
       </c>
       <c r="K16">
-        <v>5.429107430486624</v>
+        <v>2.083985361658165</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.135018801435862</v>
+        <v>0.5757107732449072</v>
       </c>
       <c r="N16">
-        <v>0.5919895430073616</v>
+        <v>1.556374619786373</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2106781232761108</v>
+        <v>0.06666868993180231</v>
       </c>
       <c r="D17">
-        <v>0.05700466865371112</v>
+        <v>0.09690432074921063</v>
       </c>
       <c r="E17">
-        <v>0.06245868379360076</v>
+        <v>0.1133053858151385</v>
       </c>
       <c r="F17">
-        <v>1.775388276504884</v>
+        <v>2.140065477214151</v>
       </c>
       <c r="G17">
-        <v>1.523619258758629</v>
+        <v>1.517558448299127</v>
       </c>
       <c r="H17">
-        <v>0.8599559743063878</v>
+        <v>1.324734899082983</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08105795213857903</v>
+        <v>0.1524971205981558</v>
       </c>
       <c r="K17">
-        <v>5.192678731422802</v>
+        <v>2.022149441838451</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.086654959006744</v>
+        <v>0.5637470586723623</v>
       </c>
       <c r="N17">
-        <v>0.6130128418564507</v>
+        <v>1.564588739511251</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2050195681094777</v>
+        <v>0.06517826188411391</v>
       </c>
       <c r="D18">
-        <v>0.05598830191461701</v>
+        <v>0.0966899602509983</v>
       </c>
       <c r="E18">
-        <v>0.0616303002488614</v>
+        <v>0.1132346354380793</v>
       </c>
       <c r="F18">
-        <v>1.743282178549677</v>
+        <v>2.13631635746691</v>
       </c>
       <c r="G18">
-        <v>1.492786543603529</v>
+        <v>1.51330432394272</v>
       </c>
       <c r="H18">
-        <v>0.8477491690100578</v>
+        <v>1.324214487910552</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0802091177559987</v>
+        <v>0.1525346134409347</v>
       </c>
       <c r="K18">
-        <v>5.0573341782694</v>
+        <v>1.986643084658056</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.058984578823733</v>
+        <v>0.5568880929929065</v>
       </c>
       <c r="N18">
-        <v>0.625282162102593</v>
+        <v>1.569375698466796</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2031095265946448</v>
+        <v>0.06467396910525736</v>
       </c>
       <c r="D19">
-        <v>0.05564487161799292</v>
+        <v>0.09661770602663466</v>
       </c>
       <c r="E19">
-        <v>0.06135149088885328</v>
+        <v>0.1132113716854164</v>
       </c>
       <c r="F19">
-        <v>1.732500368697387</v>
+        <v>2.135069055256309</v>
       </c>
       <c r="G19">
-        <v>1.482432534214439</v>
+        <v>1.511882114851147</v>
       </c>
       <c r="H19">
-        <v>0.8436601012988376</v>
+        <v>1.32405068407121</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07992513485339003</v>
+        <v>0.1525484948114837</v>
       </c>
       <c r="K19">
-        <v>5.011614266857805</v>
+        <v>1.974631555959888</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.049640091747484</v>
+        <v>0.5545695874862773</v>
       </c>
       <c r="N19">
-        <v>0.6294662171682059</v>
+        <v>1.571007194113237</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2117282351873939</v>
+        <v>0.06694469697237082</v>
       </c>
       <c r="D20">
-        <v>0.05719311070110678</v>
+        <v>0.09694414800787143</v>
       </c>
       <c r="E20">
-        <v>0.06261280144250492</v>
+        <v>0.1133188083118348</v>
       </c>
       <c r="F20">
-        <v>1.781373255890287</v>
+        <v>2.140769851413438</v>
       </c>
       <c r="G20">
-        <v>1.529366981021298</v>
+        <v>1.518354426612092</v>
       </c>
       <c r="H20">
-        <v>0.8622363813945526</v>
+        <v>1.324837107258901</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.081216698361402</v>
+        <v>0.1524907454108728</v>
       </c>
       <c r="K20">
-        <v>5.217779222126012</v>
+        <v>2.028725769246194</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.091787881658398</v>
+        <v>0.5650183144514358</v>
       </c>
       <c r="N20">
-        <v>0.6107563909251041</v>
+        <v>1.563707871333765</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2411318883602291</v>
+        <v>0.07459803843167379</v>
       </c>
       <c r="D21">
-        <v>0.0624468580919455</v>
+        <v>0.09806339444546808</v>
       </c>
       <c r="E21">
-        <v>0.06697322241138437</v>
+        <v>0.1137278064318714</v>
       </c>
       <c r="F21">
-        <v>1.952191867592262</v>
+        <v>2.161463635593819</v>
       </c>
       <c r="G21">
-        <v>1.693444076994837</v>
+        <v>1.541368587986199</v>
       </c>
       <c r="H21">
-        <v>0.9279119308598069</v>
+        <v>1.328343390917468</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08580804936094211</v>
+        <v>0.152379346679588</v>
       </c>
       <c r="K21">
-        <v>5.918535045898921</v>
+        <v>2.211191861763325</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.235239530785122</v>
+        <v>0.6003902920457449</v>
       </c>
       <c r="N21">
-        <v>0.55005633909858</v>
+        <v>1.539929326154759</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2607303132662508</v>
+        <v>0.07961820610832149</v>
       </c>
       <c r="D22">
-        <v>0.06592368458525044</v>
+        <v>0.09881146227635185</v>
       </c>
       <c r="E22">
-        <v>0.06992265173320433</v>
+        <v>0.1140308452546144</v>
       </c>
       <c r="F22">
-        <v>2.069309061236382</v>
+        <v>2.176140101660934</v>
       </c>
       <c r="G22">
-        <v>1.805990292071158</v>
+        <v>1.55736009077566</v>
       </c>
       <c r="H22">
-        <v>0.973522676305123</v>
+        <v>1.331280705310377</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08901416134661133</v>
+        <v>0.1523682019531236</v>
       </c>
       <c r="K22">
-        <v>6.383457895981451</v>
+        <v>2.330977788001178</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.330560485915299</v>
+        <v>0.6237056985216611</v>
       </c>
       <c r="N22">
-        <v>0.5121026612710828</v>
+        <v>1.524945879738153</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2502320411595349</v>
+        <v>0.07693715263498291</v>
       </c>
       <c r="D23">
-        <v>0.06406377541166108</v>
+        <v>0.09841069754912013</v>
       </c>
       <c r="E23">
-        <v>0.06833880920822466</v>
+        <v>0.1138658417562795</v>
       </c>
       <c r="F23">
-        <v>2.006262992777266</v>
+        <v>2.168201328207203</v>
       </c>
       <c r="G23">
-        <v>1.745398558325519</v>
+        <v>1.54873781966171</v>
       </c>
       <c r="H23">
-        <v>0.9489159776037184</v>
+        <v>1.329653802435047</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08728300829070434</v>
+        <v>0.1523685032861835</v>
       </c>
       <c r="K23">
-        <v>6.134622249858069</v>
+        <v>2.26699697605369</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.279529291059887</v>
+        <v>0.6112437459506168</v>
       </c>
       <c r="N23">
-        <v>0.5321949550169727</v>
+        <v>1.532891772722603</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2112533774130014</v>
+        <v>0.06681991008349542</v>
       </c>
       <c r="D24">
-        <v>0.05710790452350523</v>
+        <v>0.0969261365376326</v>
       </c>
       <c r="E24">
-        <v>0.06254309509980516</v>
+        <v>0.1133127275785419</v>
       </c>
       <c r="F24">
-        <v>1.778665836636449</v>
+        <v>2.140451008375194</v>
       </c>
       <c r="G24">
-        <v>1.526766884133963</v>
+        <v>1.51799424104351</v>
       </c>
       <c r="H24">
-        <v>0.8612046082795359</v>
+        <v>1.324790674749323</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08114486694014289</v>
+        <v>0.1524936060574404</v>
       </c>
       <c r="K24">
-        <v>5.206429492099176</v>
+        <v>2.025752474762839</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.089466870692888</v>
+        <v>0.5644435201136915</v>
       </c>
       <c r="N24">
-        <v>0.6117759646596106</v>
+        <v>1.564105910773982</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.17053995105654</v>
+        <v>0.05598279107107373</v>
       </c>
       <c r="D25">
-        <v>0.04976211804780917</v>
+        <v>0.09539695647535495</v>
       </c>
       <c r="E25">
-        <v>0.05666754518490791</v>
+        <v>0.1128699107286586</v>
       </c>
       <c r="F25">
-        <v>1.553257116278616</v>
+        <v>2.115436073399167</v>
       </c>
       <c r="G25">
-        <v>1.310287870330399</v>
+        <v>1.488878366640876</v>
       </c>
       <c r="H25">
-        <v>0.7765323052946087</v>
+        <v>1.322305819887788</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07529538361702492</v>
+        <v>0.1528928004103385</v>
       </c>
       <c r="K25">
-        <v>4.229251140050906</v>
+        <v>1.767825848585517</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8899648832543505</v>
+        <v>0.5148124587319458</v>
       </c>
       <c r="N25">
-        <v>0.7043314759613084</v>
+        <v>1.600160955693608</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04806415330644143</v>
+        <v>0.1414025644083807</v>
       </c>
       <c r="D2">
-        <v>0.09433389003166326</v>
+        <v>0.04446030157154723</v>
       </c>
       <c r="E2">
-        <v>0.1126764088172365</v>
+        <v>0.05261312306887866</v>
       </c>
       <c r="F2">
-        <v>2.101210578912017</v>
+        <v>1.401202829520827</v>
       </c>
       <c r="G2">
-        <v>1.470874964997947</v>
+        <v>1.164144878946246</v>
       </c>
       <c r="H2">
-        <v>1.322835871731598</v>
+        <v>0.7211667567998603</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.153413385524626</v>
+        <v>0.07154323250803429</v>
       </c>
       <c r="K2">
-        <v>1.579846439231574</v>
+        <v>3.524674269591571</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4789933877275772</v>
+        <v>0.7465968765983746</v>
       </c>
       <c r="N2">
-        <v>1.62875754539281</v>
+        <v>0.7776294031522832</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04273327228797541</v>
+        <v>0.1220463640252376</v>
       </c>
       <c r="D3">
-        <v>0.09365309735122906</v>
+        <v>0.04092171602207628</v>
       </c>
       <c r="E3">
-        <v>0.112628111743879</v>
+        <v>0.05001221778392484</v>
       </c>
       <c r="F3">
-        <v>2.094167621395798</v>
+        <v>1.305367766733369</v>
       </c>
       <c r="G3">
-        <v>1.460794342100428</v>
+        <v>1.071892038255314</v>
       </c>
       <c r="H3">
-        <v>1.324659984804342</v>
+        <v>0.687315980818326</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1539073061327443</v>
+        <v>0.06929892315322661</v>
       </c>
       <c r="K3">
-        <v>1.453637886189426</v>
+        <v>3.05398556626119</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4551671866045339</v>
+        <v>0.6511052368221044</v>
       </c>
       <c r="N3">
-        <v>1.649415010051476</v>
+        <v>0.8302450036381961</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03947702808072506</v>
+        <v>0.1103147874926549</v>
       </c>
       <c r="D4">
-        <v>0.09325481736216901</v>
+        <v>0.03877239628286588</v>
       </c>
       <c r="E4">
-        <v>0.1126393877610958</v>
+        <v>0.04848094630485633</v>
       </c>
       <c r="F4">
-        <v>2.091119198627311</v>
+        <v>1.249649958796269</v>
       </c>
       <c r="G4">
-        <v>1.455643872537124</v>
+        <v>1.018161935814348</v>
       </c>
       <c r="H4">
-        <v>1.326500421825997</v>
+        <v>0.6681409273540737</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1542801048651512</v>
+        <v>0.06805408982965488</v>
       </c>
       <c r="K4">
-        <v>1.376727107748167</v>
+        <v>2.767608154012322</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4407586108317645</v>
+        <v>0.5931416006403722</v>
       </c>
       <c r="N4">
-        <v>1.662728356794245</v>
+        <v>0.8639213877604757</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0381542725570938</v>
+        <v>0.1055672459900308</v>
       </c>
       <c r="D5">
-        <v>0.09309750690345098</v>
+        <v>0.0379019531566307</v>
       </c>
       <c r="E5">
-        <v>0.1126542895426059</v>
+        <v>0.04787254490967996</v>
       </c>
       <c r="F5">
-        <v>2.090197141497612</v>
+        <v>1.227671217641969</v>
       </c>
       <c r="G5">
-        <v>1.453805416754307</v>
+        <v>0.9969395658388009</v>
       </c>
       <c r="H5">
-        <v>1.327431307673081</v>
+        <v>0.6607041218090899</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1544494995946444</v>
+        <v>0.06757836885885382</v>
       </c>
       <c r="K5">
-        <v>1.345531788216135</v>
+        <v>2.651469231836188</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4349425865951488</v>
+        <v>0.5696681479491019</v>
       </c>
       <c r="N5">
-        <v>1.668311857775175</v>
+        <v>0.8779781157706452</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03793488110241583</v>
+        <v>0.104780774165647</v>
       </c>
       <c r="D6">
-        <v>0.09307168802837396</v>
+        <v>0.03775773155402007</v>
       </c>
       <c r="E6">
-        <v>0.1126573868996612</v>
+        <v>0.04777243717066249</v>
       </c>
       <c r="F6">
-        <v>2.09006335486724</v>
+        <v>1.22406390389844</v>
       </c>
       <c r="G6">
-        <v>1.453515844587812</v>
+        <v>0.9934545973903823</v>
       </c>
       <c r="H6">
-        <v>1.327596798407697</v>
+        <v>0.6594912584497905</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1544786827684135</v>
+        <v>0.06750122782729306</v>
       </c>
       <c r="K6">
-        <v>1.340360679276557</v>
+        <v>2.632215663946766</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4339801995227006</v>
+        <v>0.5657787059388113</v>
       </c>
       <c r="N6">
-        <v>1.669248545912467</v>
+        <v>0.8803320442826781</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03945917206075933</v>
+        <v>0.1102506329909687</v>
       </c>
       <c r="D7">
-        <v>0.0932526755650116</v>
+        <v>0.03876063580638345</v>
       </c>
       <c r="E7">
-        <v>0.1126395469808177</v>
+        <v>0.04847267917537934</v>
       </c>
       <c r="F7">
-        <v>2.091105467842183</v>
+        <v>1.24935067857426</v>
       </c>
       <c r="G7">
-        <v>1.455618025291898</v>
+        <v>1.01787307391038</v>
       </c>
       <c r="H7">
-        <v>1.326512244007418</v>
+        <v>0.6680391397695473</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.154282318631207</v>
+        <v>0.0680475487674066</v>
       </c>
       <c r="K7">
-        <v>1.376305803585069</v>
+        <v>2.766039712555767</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4406799487372552</v>
+        <v>0.5928244600214256</v>
       </c>
       <c r="N7">
-        <v>1.662803017429631</v>
+        <v>0.8641096263044021</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0462225068562816</v>
+        <v>0.1346934038806751</v>
       </c>
       <c r="D8">
-        <v>0.09409507589378308</v>
+        <v>0.04323505410327044</v>
       </c>
       <c r="E8">
-        <v>0.1126512691655517</v>
+        <v>0.05170212473155189</v>
       </c>
       <c r="F8">
-        <v>2.098516932392471</v>
+        <v>1.367473296464084</v>
       </c>
       <c r="G8">
-        <v>1.467182967244185</v>
+        <v>1.131694212521467</v>
       </c>
       <c r="H8">
-        <v>1.323315139131225</v>
+        <v>0.7091437725409833</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1535692536676869</v>
+        <v>0.07074054832940391</v>
       </c>
       <c r="K8">
-        <v>1.536209026079803</v>
+        <v>3.361773826051092</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4707323133521939</v>
+        <v>0.7135194878978268</v>
       </c>
       <c r="N8">
-        <v>1.635749505463997</v>
+        <v>0.7954798791504931</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05962356624128518</v>
+        <v>0.1841048370938694</v>
       </c>
       <c r="D9">
-        <v>0.09590235504150257</v>
+        <v>0.05221820503398078</v>
       </c>
       <c r="E9">
-        <v>0.1129985049790534</v>
+        <v>0.05860128997573</v>
       </c>
       <c r="F9">
-        <v>2.123208664910436</v>
+        <v>1.626815357869674</v>
       </c>
       <c r="G9">
-        <v>1.498149617904772</v>
+        <v>1.380939678573156</v>
       </c>
       <c r="H9">
-        <v>1.322775341431623</v>
+        <v>0.8038725805290881</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1527230833782802</v>
+        <v>0.07717281990203873</v>
       </c>
       <c r="K9">
-        <v>1.854406384229776</v>
+        <v>4.555740673917967</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5314178540625178</v>
+        <v>0.9565442918503706</v>
       </c>
       <c r="N9">
-        <v>1.587697240566941</v>
+        <v>0.6723150975242831</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06955977577099759</v>
+        <v>0.2217126953599262</v>
       </c>
       <c r="D10">
-        <v>0.09732344005478666</v>
+        <v>0.05898205207140705</v>
       </c>
       <c r="E10">
-        <v>0.1134507637158606</v>
+        <v>0.06408395254389987</v>
       </c>
       <c r="F10">
-        <v>2.147594310101084</v>
+        <v>1.838686901650306</v>
       </c>
       <c r="G10">
-        <v>1.526018242556745</v>
+        <v>1.584411336201555</v>
       </c>
       <c r="H10">
-        <v>1.325892677077263</v>
+        <v>0.8841486521830575</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1524388253906324</v>
+        <v>0.08274461526018939</v>
       </c>
       <c r="K10">
-        <v>2.091049401603698</v>
+        <v>5.456176623021918</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5770789296284136</v>
+        <v>1.140558226911111</v>
       </c>
       <c r="N10">
-        <v>1.555445793669024</v>
+        <v>0.5896151068812152</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07410105570008341</v>
+        <v>0.2392054015753331</v>
       </c>
       <c r="D11">
-        <v>0.09798989955769599</v>
+        <v>0.06210400323413978</v>
       </c>
       <c r="E11">
-        <v>0.1136992199081845</v>
+        <v>0.06668504430001931</v>
       </c>
       <c r="F11">
-        <v>2.16005565747615</v>
+        <v>1.940815701979389</v>
       </c>
       <c r="G11">
-        <v>1.539822018105411</v>
+        <v>1.682514490054189</v>
       </c>
       <c r="H11">
-        <v>1.328078588575949</v>
+        <v>0.9235051442322231</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1523829728534096</v>
+        <v>0.08549894681742387</v>
       </c>
       <c r="K11">
-        <v>2.19933719099663</v>
+        <v>5.872742657427239</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.598086705113019</v>
+        <v>1.225856953430664</v>
       </c>
       <c r="N11">
-        <v>1.541437688631476</v>
+        <v>0.5538918119023197</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07582386788264728</v>
+        <v>0.2458940874199556</v>
       </c>
       <c r="D12">
-        <v>0.09824511940898617</v>
+        <v>0.0632935489780877</v>
       </c>
       <c r="E12">
-        <v>0.1137994365551869</v>
+        <v>0.06768697130424428</v>
       </c>
       <c r="F12">
-        <v>2.164972053843798</v>
+        <v>1.980419683377974</v>
       </c>
       <c r="G12">
-        <v>1.545212181906095</v>
+        <v>1.72056563271596</v>
       </c>
       <c r="H12">
-        <v>1.329017105162109</v>
+        <v>0.9388652107874691</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1523724002204006</v>
+        <v>0.08657688047300383</v>
       </c>
       <c r="K12">
-        <v>2.240435011418811</v>
+        <v>6.03166121663935</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6060758278657801</v>
+        <v>1.258423129572108</v>
       </c>
       <c r="N12">
-        <v>1.536228702149288</v>
+        <v>0.5406569395011172</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07545268917372994</v>
+        <v>0.2444505291418153</v>
       </c>
       <c r="D13">
-        <v>0.09819002714074543</v>
+        <v>0.06303701832349873</v>
       </c>
       <c r="E13">
-        <v>0.1137775805814201</v>
+        <v>0.06747040792733827</v>
       </c>
       <c r="F13">
-        <v>2.163904420628228</v>
+        <v>1.971847124104514</v>
       </c>
       <c r="G13">
-        <v>1.544044048936456</v>
+        <v>1.712328750849025</v>
       </c>
       <c r="H13">
-        <v>1.328810047175551</v>
+        <v>0.9355360087181452</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1523742065553435</v>
+        <v>0.08634311782102344</v>
       </c>
       <c r="K13">
-        <v>2.231579788817044</v>
+        <v>5.99738006507215</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.604353718840855</v>
+        <v>1.251396988371994</v>
       </c>
       <c r="N13">
-        <v>1.537346296336642</v>
+        <v>0.5434939447204918</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07424272938717991</v>
+        <v>0.2397543330150427</v>
       </c>
       <c r="D14">
-        <v>0.09801083977832548</v>
+        <v>0.0622017157173218</v>
       </c>
       <c r="E14">
-        <v>0.1137073419696257</v>
+        <v>0.06676712420879838</v>
       </c>
       <c r="F14">
-        <v>2.160456168404764</v>
+        <v>1.944054672932396</v>
       </c>
       <c r="G14">
-        <v>1.540262197975039</v>
+        <v>1.685626271103018</v>
       </c>
       <c r="H14">
-        <v>1.328153579107692</v>
+        <v>0.9247593783573507</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1523818909635963</v>
+        <v>0.0855869086892227</v>
       </c>
       <c r="K14">
-        <v>2.202716498510085</v>
+        <v>5.885792387012373</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5987432952247218</v>
+        <v>1.228530648366586</v>
       </c>
       <c r="N14">
-        <v>1.541007225432168</v>
+        <v>0.5527969816858356</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07350200360548342</v>
+        <v>0.2368864786942169</v>
       </c>
       <c r="D15">
-        <v>0.09790145210804013</v>
+        <v>0.06169105044073575</v>
       </c>
       <c r="E15">
-        <v>0.1136651169771525</v>
+        <v>0.06633859913489459</v>
       </c>
       <c r="F15">
-        <v>2.15836976598213</v>
+        <v>1.927155375596726</v>
       </c>
       <c r="G15">
-        <v>1.537966959680404</v>
+        <v>1.669390945190486</v>
       </c>
       <c r="H15">
-        <v>1.327765908005802</v>
+        <v>0.9182193745372729</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1523879758229256</v>
+        <v>0.08512836244095467</v>
       </c>
       <c r="K15">
-        <v>2.185048823751629</v>
+        <v>5.817600103927361</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5953111666072886</v>
+        <v>1.214560077459808</v>
       </c>
       <c r="N15">
-        <v>1.543262103629957</v>
+        <v>0.5585341152311756</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06926342620830894</v>
+        <v>0.2205780165680835</v>
       </c>
       <c r="D16">
-        <v>0.09728028525446319</v>
+        <v>0.05877900233426203</v>
       </c>
       <c r="E16">
-        <v>0.1134353851855394</v>
+        <v>0.0639162482960316</v>
       </c>
       <c r="F16">
-        <v>2.146807532331081</v>
+        <v>1.832136797513371</v>
       </c>
       <c r="G16">
-        <v>1.525138882997908</v>
+        <v>1.578120283091039</v>
       </c>
       <c r="H16">
-        <v>1.325765302729565</v>
+        <v>0.8816377533806872</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1524439548633012</v>
+        <v>0.08256931137482582</v>
       </c>
       <c r="K16">
-        <v>2.083985361658165</v>
+        <v>5.429107430486567</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5757107732449072</v>
+        <v>1.135018801435862</v>
       </c>
       <c r="N16">
-        <v>1.556374619786373</v>
+        <v>0.5919895430073172</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06666868993180231</v>
+        <v>0.2106781232759261</v>
       </c>
       <c r="D17">
-        <v>0.09690432074921063</v>
+        <v>0.05700466865372533</v>
       </c>
       <c r="E17">
-        <v>0.1133053858151385</v>
+        <v>0.06245868379360076</v>
       </c>
       <c r="F17">
-        <v>2.140065477214151</v>
+        <v>1.775388276504856</v>
       </c>
       <c r="G17">
-        <v>1.517558448299127</v>
+        <v>1.523619258758629</v>
       </c>
       <c r="H17">
-        <v>1.324734899082983</v>
+        <v>0.8599559743063594</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1524971205981558</v>
+        <v>0.08105795213855771</v>
       </c>
       <c r="K17">
-        <v>2.022149441838451</v>
+        <v>5.192678731422802</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5637470586723623</v>
+        <v>1.086654959006751</v>
       </c>
       <c r="N17">
-        <v>1.564588739511251</v>
+        <v>0.6130128418564436</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06517826188411391</v>
+        <v>0.2050195681092504</v>
       </c>
       <c r="D18">
-        <v>0.0966899602509983</v>
+        <v>0.05598830191442516</v>
       </c>
       <c r="E18">
-        <v>0.1132346354380793</v>
+        <v>0.06163030024885785</v>
       </c>
       <c r="F18">
-        <v>2.13631635746691</v>
+        <v>1.743282178549691</v>
       </c>
       <c r="G18">
-        <v>1.51330432394272</v>
+        <v>1.492786543603529</v>
       </c>
       <c r="H18">
-        <v>1.324214487910552</v>
+        <v>0.8477491690100578</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1525346134409347</v>
+        <v>0.08020911775605555</v>
       </c>
       <c r="K18">
-        <v>1.986643084658056</v>
+        <v>5.0573341782694</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5568880929929065</v>
+        <v>1.058984578823726</v>
       </c>
       <c r="N18">
-        <v>1.569375698466796</v>
+        <v>0.6252821621026019</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06467396910525736</v>
+        <v>0.2031095265942184</v>
       </c>
       <c r="D19">
-        <v>0.09661770602663466</v>
+        <v>0.0556448716180995</v>
       </c>
       <c r="E19">
-        <v>0.1132113716854164</v>
+        <v>0.06135149088886394</v>
       </c>
       <c r="F19">
-        <v>2.135069055256309</v>
+        <v>1.732500368697387</v>
       </c>
       <c r="G19">
-        <v>1.511882114851147</v>
+        <v>1.482432534214411</v>
       </c>
       <c r="H19">
-        <v>1.32405068407121</v>
+        <v>0.8436601012989513</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1525484948114837</v>
+        <v>0.07992513485342556</v>
       </c>
       <c r="K19">
-        <v>1.974631555959888</v>
+        <v>5.011614266857805</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5545695874862773</v>
+        <v>1.049640091747499</v>
       </c>
       <c r="N19">
-        <v>1.571007194113237</v>
+        <v>0.6294662171682575</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06694469697237082</v>
+        <v>0.2117282351874081</v>
       </c>
       <c r="D20">
-        <v>0.09694414800787143</v>
+        <v>0.05719311070090782</v>
       </c>
       <c r="E20">
-        <v>0.1133188083118348</v>
+        <v>0.06261280144250492</v>
       </c>
       <c r="F20">
-        <v>2.140769851413438</v>
+        <v>1.781373255890287</v>
       </c>
       <c r="G20">
-        <v>1.518354426612092</v>
+        <v>1.529366981021298</v>
       </c>
       <c r="H20">
-        <v>1.324837107258901</v>
+        <v>0.8622363813944389</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1524907454108728</v>
+        <v>0.08121669836139489</v>
       </c>
       <c r="K20">
-        <v>2.028725769246194</v>
+        <v>5.217779222126126</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5650183144514358</v>
+        <v>1.091787881658405</v>
       </c>
       <c r="N20">
-        <v>1.563707871333765</v>
+        <v>0.6107563909250953</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07459803843167379</v>
+        <v>0.2411318883604281</v>
       </c>
       <c r="D21">
-        <v>0.09806339444546808</v>
+        <v>0.06244685809203077</v>
       </c>
       <c r="E21">
-        <v>0.1137278064318714</v>
+        <v>0.06697322241141279</v>
       </c>
       <c r="F21">
-        <v>2.161463635593819</v>
+        <v>1.952191867592262</v>
       </c>
       <c r="G21">
-        <v>1.541368587986199</v>
+        <v>1.693444076994865</v>
       </c>
       <c r="H21">
-        <v>1.328343390917468</v>
+        <v>0.9279119308598354</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.152379346679588</v>
+        <v>0.08580804936097053</v>
       </c>
       <c r="K21">
-        <v>2.211191861763325</v>
+        <v>5.918535045898921</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6003902920457449</v>
+        <v>1.235239530785108</v>
       </c>
       <c r="N21">
-        <v>1.539929326154759</v>
+        <v>0.5500563390985622</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07961820610832149</v>
+        <v>0.2607303132662508</v>
       </c>
       <c r="D22">
-        <v>0.09881146227635185</v>
+        <v>0.06592368458516518</v>
       </c>
       <c r="E22">
-        <v>0.1140308452546144</v>
+        <v>0.06992265173319367</v>
       </c>
       <c r="F22">
-        <v>2.176140101660934</v>
+        <v>2.069309061236368</v>
       </c>
       <c r="G22">
-        <v>1.55736009077566</v>
+        <v>1.805990292071186</v>
       </c>
       <c r="H22">
-        <v>1.331280705310377</v>
+        <v>0.9735226763052083</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1523682019531236</v>
+        <v>0.08901416134667528</v>
       </c>
       <c r="K22">
-        <v>2.330977788001178</v>
+        <v>6.383457895981508</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6237056985216611</v>
+        <v>1.330560485915285</v>
       </c>
       <c r="N22">
-        <v>1.524945879738153</v>
+        <v>0.512102661271129</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07693715263498291</v>
+        <v>0.2502320411595633</v>
       </c>
       <c r="D23">
-        <v>0.09841069754912013</v>
+        <v>0.06406377541185293</v>
       </c>
       <c r="E23">
-        <v>0.1138658417562795</v>
+        <v>0.06833880920822466</v>
       </c>
       <c r="F23">
-        <v>2.168201328207203</v>
+        <v>2.006262992777266</v>
       </c>
       <c r="G23">
-        <v>1.54873781966171</v>
+        <v>1.745398558325491</v>
       </c>
       <c r="H23">
-        <v>1.329653802435047</v>
+        <v>0.9489159776035478</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1523685032861835</v>
+        <v>0.08728300829070434</v>
       </c>
       <c r="K23">
-        <v>2.26699697605369</v>
+        <v>6.134622249858126</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6112437459506168</v>
+        <v>1.279529291059859</v>
       </c>
       <c r="N23">
-        <v>1.532891772722603</v>
+        <v>0.5321949550169656</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06681991008349542</v>
+        <v>0.2112533774131009</v>
       </c>
       <c r="D24">
-        <v>0.0969261365376326</v>
+        <v>0.05710790452341286</v>
       </c>
       <c r="E24">
-        <v>0.1133127275785419</v>
+        <v>0.06254309509980516</v>
       </c>
       <c r="F24">
-        <v>2.140451008375194</v>
+        <v>1.778665836636449</v>
       </c>
       <c r="G24">
-        <v>1.51799424104351</v>
+        <v>1.526766884133934</v>
       </c>
       <c r="H24">
-        <v>1.324790674749323</v>
+        <v>0.8612046082795359</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1524936060574404</v>
+        <v>0.08114486694026368</v>
       </c>
       <c r="K24">
-        <v>2.025752474762839</v>
+        <v>5.206429492099119</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5644435201136915</v>
+        <v>1.089466870692867</v>
       </c>
       <c r="N24">
-        <v>1.564105910773982</v>
+        <v>0.6117759646596159</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05598279107107373</v>
+        <v>0.1705399510563836</v>
       </c>
       <c r="D25">
-        <v>0.09539695647535495</v>
+        <v>0.04976211804792285</v>
       </c>
       <c r="E25">
-        <v>0.1128699107286586</v>
+        <v>0.05666754518488304</v>
       </c>
       <c r="F25">
-        <v>2.115436073399167</v>
+        <v>1.55325711627863</v>
       </c>
       <c r="G25">
-        <v>1.488878366640876</v>
+        <v>1.310287870330455</v>
       </c>
       <c r="H25">
-        <v>1.322305819887788</v>
+        <v>0.7765323052946087</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1528928004103385</v>
+        <v>0.07529538361708887</v>
       </c>
       <c r="K25">
-        <v>1.767825848585517</v>
+        <v>4.229251140050906</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5148124587319458</v>
+        <v>0.8899648832543363</v>
       </c>
       <c r="N25">
-        <v>1.600160955693608</v>
+        <v>0.7043314759613013</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1414025644083807</v>
+        <v>0.1587756865474432</v>
       </c>
       <c r="D2">
-        <v>0.04446030157154723</v>
+        <v>0.061421420109248</v>
       </c>
       <c r="E2">
-        <v>0.05261312306887866</v>
+        <v>0.4492372109000513</v>
       </c>
       <c r="F2">
-        <v>1.401202829520827</v>
+        <v>0.3002449302007406</v>
       </c>
       <c r="G2">
-        <v>1.164144878946246</v>
+        <v>0.2002535506984486</v>
       </c>
       <c r="H2">
-        <v>0.7211667567998603</v>
+        <v>0.0452964222741134</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0359461628215656</v>
       </c>
       <c r="J2">
-        <v>0.07154323250803429</v>
+        <v>0.1523828145675807</v>
       </c>
       <c r="K2">
-        <v>3.524674269591571</v>
+        <v>0.115453627571231</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7465968765983746</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7776294031522832</v>
+        <v>1.137808207529957</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>32.36326869226673</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.695632082862943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1220463640252376</v>
+        <v>0.1555851580698544</v>
       </c>
       <c r="D3">
-        <v>0.04092171602207628</v>
+        <v>0.05462487769699464</v>
       </c>
       <c r="E3">
-        <v>0.05001221778392484</v>
+        <v>0.3972147981441196</v>
       </c>
       <c r="F3">
-        <v>1.305367766733369</v>
+        <v>0.2708588558206415</v>
       </c>
       <c r="G3">
-        <v>1.071892038255314</v>
+        <v>0.1780247333230989</v>
       </c>
       <c r="H3">
-        <v>0.687315980818326</v>
+        <v>0.02999151563832808</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02597076650571717</v>
       </c>
       <c r="J3">
-        <v>0.06929892315322661</v>
+        <v>0.15115123958266</v>
       </c>
       <c r="K3">
-        <v>3.05398556626119</v>
+        <v>0.1175705815642694</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6511052368221044</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8302450036381961</v>
+        <v>0.9915435908110339</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.83995329472532</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6453987557591319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1103147874926549</v>
+        <v>0.1535550403331314</v>
       </c>
       <c r="D4">
-        <v>0.03877239628286588</v>
+        <v>0.05040094194515632</v>
       </c>
       <c r="E4">
-        <v>0.04848094630485633</v>
+        <v>0.3656211032929519</v>
       </c>
       <c r="F4">
-        <v>1.249649958796269</v>
+        <v>0.2546085944415708</v>
       </c>
       <c r="G4">
-        <v>1.018161935814348</v>
+        <v>0.1662022315954701</v>
       </c>
       <c r="H4">
-        <v>0.6681409273540737</v>
+        <v>0.0222269258257167</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02065113460934631</v>
       </c>
       <c r="J4">
-        <v>0.06805408982965488</v>
+        <v>0.1513389832717849</v>
       </c>
       <c r="K4">
-        <v>2.767608154012322</v>
+        <v>0.1204131427483865</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5931416006403722</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8639213877604757</v>
+        <v>0.9028403219648737</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.13102461355828</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6203956598948679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1055672459900308</v>
+        <v>0.1531461984070717</v>
       </c>
       <c r="D5">
-        <v>0.0379019531566307</v>
+        <v>0.04873488208425414</v>
       </c>
       <c r="E5">
-        <v>0.04787254490967996</v>
+        <v>0.3530347159635312</v>
       </c>
       <c r="F5">
-        <v>1.227671217641969</v>
+        <v>0.2480063267532486</v>
       </c>
       <c r="G5">
-        <v>0.9969395658388009</v>
+        <v>0.1614239627991907</v>
       </c>
       <c r="H5">
-        <v>0.6607041218090899</v>
+        <v>0.01939867941766876</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01869308517313772</v>
       </c>
       <c r="J5">
-        <v>0.06757836885885382</v>
+        <v>0.1514409534833021</v>
       </c>
       <c r="K5">
-        <v>2.651469231836188</v>
+        <v>0.1216115860748062</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5696681479491019</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8779781157706452</v>
+        <v>0.8666913729524879</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.04034492677607</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6103414277596926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.104780774165647</v>
+        <v>0.1536042698186151</v>
       </c>
       <c r="D6">
-        <v>0.03775773155402007</v>
+        <v>0.04853880275960876</v>
       </c>
       <c r="E6">
-        <v>0.04777243717066249</v>
+        <v>0.3512215344555969</v>
       </c>
       <c r="F6">
-        <v>1.22406390389844</v>
+        <v>0.2464727304073691</v>
       </c>
       <c r="G6">
-        <v>0.9934545973903823</v>
+        <v>0.1602127143260077</v>
       </c>
       <c r="H6">
-        <v>0.6594912584497905</v>
+        <v>0.01894066836394283</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01843029090390402</v>
       </c>
       <c r="J6">
-        <v>0.06750122782729306</v>
+        <v>0.1512411035447059</v>
       </c>
       <c r="K6">
-        <v>2.632215663946766</v>
+        <v>0.1214610346803582</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5657787059388113</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8803320442826781</v>
+        <v>0.8604554120734065</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>23.85987367004395</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6073317625239696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1102506329909687</v>
+        <v>0.1549857089182183</v>
       </c>
       <c r="D7">
-        <v>0.03876063580638345</v>
+        <v>0.05060066847880762</v>
       </c>
       <c r="E7">
-        <v>0.04847267917537934</v>
+        <v>0.3661997999388049</v>
       </c>
       <c r="F7">
-        <v>1.24935067857426</v>
+        <v>0.2532574290545639</v>
       </c>
       <c r="G7">
-        <v>1.01787307391038</v>
+        <v>0.1649275159779862</v>
       </c>
       <c r="H7">
-        <v>0.6680391397695473</v>
+        <v>0.02216619344229528</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02075082593421662</v>
       </c>
       <c r="J7">
-        <v>0.0680475487674066</v>
+        <v>0.1507121843457782</v>
       </c>
       <c r="K7">
-        <v>2.766039712555767</v>
+        <v>0.119414106688069</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5928244600214256</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8641096263044021</v>
+        <v>0.9016887013390829</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.11607149943671</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.6163780958958256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1346934038806751</v>
+        <v>0.1595953158390984</v>
       </c>
       <c r="D8">
-        <v>0.04323505410327044</v>
+        <v>0.05938567242517223</v>
       </c>
       <c r="E8">
-        <v>0.05170212473155189</v>
+        <v>0.4322110826843328</v>
       </c>
       <c r="F8">
-        <v>1.367473296464084</v>
+        <v>0.2880147575788783</v>
       </c>
       <c r="G8">
-        <v>1.131694212521467</v>
+        <v>0.1905463175382138</v>
       </c>
       <c r="H8">
-        <v>0.7091437725409833</v>
+        <v>0.03959968814466752</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.03245011932388842</v>
       </c>
       <c r="J8">
-        <v>0.07074054832940391</v>
+        <v>0.1509074169315667</v>
       </c>
       <c r="K8">
-        <v>3.361773826051092</v>
+        <v>0.1144672252132111</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7135194878978268</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7954798791504931</v>
+        <v>1.086221508597674</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>30.7864948975872</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.6717814392522143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1841048370938694</v>
+        <v>0.165072860660743</v>
       </c>
       <c r="D9">
-        <v>0.05221820503398078</v>
+        <v>0.07571236489310706</v>
       </c>
       <c r="E9">
-        <v>0.05860128997573</v>
+        <v>0.5644762627067195</v>
       </c>
       <c r="F9">
-        <v>1.626815357869674</v>
+        <v>0.3756775092286659</v>
       </c>
       <c r="G9">
-        <v>1.380939678573156</v>
+        <v>0.2607228824265064</v>
       </c>
       <c r="H9">
-        <v>0.8038725805290881</v>
+        <v>0.09069567710513715</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0632830347691673</v>
       </c>
       <c r="J9">
-        <v>0.07717281990203873</v>
+        <v>0.1612467873475794</v>
       </c>
       <c r="K9">
-        <v>4.555740673917967</v>
+        <v>0.1213599874544684</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9565442918503706</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6723150975242831</v>
+        <v>1.462913080300723</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>42.67844814382846</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.8434960090141317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2217126953599262</v>
+        <v>0.1732995263425039</v>
       </c>
       <c r="D10">
-        <v>0.05898205207140705</v>
+        <v>0.08843730458999488</v>
       </c>
       <c r="E10">
-        <v>0.06408395254389987</v>
+        <v>0.6838618478005998</v>
       </c>
       <c r="F10">
-        <v>1.838686901650306</v>
+        <v>0.4488210856074275</v>
       </c>
       <c r="G10">
-        <v>1.584411336201555</v>
+        <v>0.3221184183642265</v>
       </c>
       <c r="H10">
-        <v>0.8841486521830575</v>
+        <v>0.1454448670191724</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.09386058872481673</v>
       </c>
       <c r="J10">
-        <v>0.08274461526018939</v>
+        <v>0.1730044641951594</v>
       </c>
       <c r="K10">
-        <v>5.456176623021918</v>
+        <v>0.1345555626802444</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.140558226911111</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5896151068812152</v>
+        <v>1.795107289677304</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>52.32706694023227</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9992156813993347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2392054015753331</v>
+        <v>0.2260723829273559</v>
       </c>
       <c r="D11">
-        <v>0.06210400323413978</v>
+        <v>0.1045151564760403</v>
       </c>
       <c r="E11">
-        <v>0.06668504430001931</v>
+        <v>0.8967889324547826</v>
       </c>
       <c r="F11">
-        <v>1.940815701979389</v>
+        <v>0.4303474637204303</v>
       </c>
       <c r="G11">
-        <v>1.682514490054189</v>
+        <v>0.3017719893202013</v>
       </c>
       <c r="H11">
-        <v>0.9235051442322231</v>
+        <v>0.1912889221794423</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1106665009291206</v>
       </c>
       <c r="J11">
-        <v>0.08549894681742387</v>
+        <v>0.1522133029970121</v>
       </c>
       <c r="K11">
-        <v>5.872742657427239</v>
+        <v>0.1041760379344403</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.225856953430664</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5538918119023197</v>
+        <v>2.307454776135046</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>57.05544578185953</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9130257315892152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2458940874199556</v>
+        <v>0.2733993980820486</v>
       </c>
       <c r="D12">
-        <v>0.0632935489780877</v>
+        <v>0.1158183413743643</v>
       </c>
       <c r="E12">
-        <v>0.06768697130424428</v>
+        <v>1.067356269185396</v>
       </c>
       <c r="F12">
-        <v>1.980419683377974</v>
+        <v>0.4010843332773391</v>
       </c>
       <c r="G12">
-        <v>1.72056563271596</v>
+        <v>0.2744180743630196</v>
       </c>
       <c r="H12">
-        <v>0.9388652107874691</v>
+        <v>0.2418753839870789</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1179992673278729</v>
       </c>
       <c r="J12">
-        <v>0.08657688047300383</v>
+        <v>0.1334128106179335</v>
       </c>
       <c r="K12">
-        <v>6.03166121663935</v>
+        <v>0.07999350428307395</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.258423129572108</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5406569395011172</v>
+        <v>2.708465438814983</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>58.92041780143819</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8158816234827952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2444505291418153</v>
+        <v>0.3215675364963033</v>
       </c>
       <c r="D13">
-        <v>0.06303701832349873</v>
+        <v>0.1244253928299912</v>
       </c>
       <c r="E13">
-        <v>0.06747040792733827</v>
+        <v>1.213775622477485</v>
       </c>
       <c r="F13">
-        <v>1.971847124104514</v>
+        <v>0.3580566033074604</v>
       </c>
       <c r="G13">
-        <v>1.712328750849025</v>
+        <v>0.2362661129410242</v>
       </c>
       <c r="H13">
-        <v>0.9355360087181452</v>
+        <v>0.2956610989416788</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1173596716975007</v>
       </c>
       <c r="J13">
-        <v>0.08634311782102344</v>
+        <v>0.1132729146748446</v>
       </c>
       <c r="K13">
-        <v>5.99738006507215</v>
+        <v>0.05611215289548355</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.251396988371994</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5434939447204918</v>
+        <v>3.038451480576754</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>58.51977934840937</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6928395025751541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2397543330150427</v>
+        <v>0.3568823961542194</v>
       </c>
       <c r="D14">
-        <v>0.0622017157173218</v>
+        <v>0.1293316265304583</v>
       </c>
       <c r="E14">
-        <v>0.06676712420879838</v>
+        <v>1.306655451984454</v>
       </c>
       <c r="F14">
-        <v>1.944054672932396</v>
+        <v>0.321881597897935</v>
       </c>
       <c r="G14">
-        <v>1.685626271103018</v>
+        <v>0.2050303963217743</v>
       </c>
       <c r="H14">
-        <v>0.9247593783573507</v>
+        <v>0.3374943694819734</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1133435622870822</v>
       </c>
       <c r="J14">
-        <v>0.0855869086892227</v>
+        <v>0.09870243703264947</v>
       </c>
       <c r="K14">
-        <v>5.885792387012373</v>
+        <v>0.04010573472293189</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.228530648366586</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5527969816858356</v>
+        <v>3.239005702849056</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>57.21686519260152</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5960260037416418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2368864786942169</v>
+        <v>0.3655854957142139</v>
       </c>
       <c r="D15">
-        <v>0.06169105044073575</v>
+        <v>0.1299399961831966</v>
       </c>
       <c r="E15">
-        <v>0.06633859913489459</v>
+        <v>1.321830379640161</v>
       </c>
       <c r="F15">
-        <v>1.927155375596726</v>
+        <v>0.3097647075451633</v>
       </c>
       <c r="G15">
-        <v>1.669390945190486</v>
+        <v>0.1946583987496879</v>
       </c>
       <c r="H15">
-        <v>0.9182193745372729</v>
+        <v>0.3449963422143014</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1106907481021322</v>
       </c>
       <c r="J15">
-        <v>0.08512836244095467</v>
+        <v>0.09465321943545035</v>
       </c>
       <c r="K15">
-        <v>5.817600103927361</v>
+        <v>0.03572043407657155</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.214560077459808</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5585341152311756</v>
+        <v>3.26626780266497</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>56.42576340252299</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5654935711715154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2205780165680835</v>
+        <v>0.353071048332481</v>
       </c>
       <c r="D16">
-        <v>0.05877900233426203</v>
+        <v>0.1227328687435687</v>
       </c>
       <c r="E16">
-        <v>0.0639162482960316</v>
+        <v>1.233789181306207</v>
       </c>
       <c r="F16">
-        <v>1.832136797513371</v>
+        <v>0.2827927907128398</v>
       </c>
       <c r="G16">
-        <v>1.578120283091039</v>
+        <v>0.1715071198625751</v>
       </c>
       <c r="H16">
-        <v>0.8816377533806872</v>
+        <v>0.30267864464399</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.09489128338765696</v>
       </c>
       <c r="J16">
-        <v>0.08256931137482582</v>
+        <v>0.09168270220146724</v>
       </c>
       <c r="K16">
-        <v>5.429107430486567</v>
+        <v>0.03139480165104835</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.135018801435862</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5919895430073172</v>
+        <v>3.03518930509955</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>52.01421615534673</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5097693053411234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2106781232759261</v>
+        <v>0.3241534159132868</v>
       </c>
       <c r="D17">
-        <v>0.05700466865372533</v>
+        <v>0.1145715240465393</v>
       </c>
       <c r="E17">
-        <v>0.06245868379360076</v>
+        <v>1.117260301342881</v>
       </c>
       <c r="F17">
-        <v>1.775388276504856</v>
+        <v>0.2820847274636122</v>
       </c>
       <c r="G17">
-        <v>1.523619258758629</v>
+        <v>0.1710680177230017</v>
       </c>
       <c r="H17">
-        <v>0.8599559743063594</v>
+        <v>0.247848776062483</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.08563237632770715</v>
       </c>
       <c r="J17">
-        <v>0.08105795213855771</v>
+        <v>0.0974576100612552</v>
       </c>
       <c r="K17">
-        <v>5.192678731422802</v>
+        <v>0.03693637433957875</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.086654959006751</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6130128418564436</v>
+        <v>2.753248305894715</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>49.40889562478225</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5206544496057006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2050195681092504</v>
+        <v>0.279289101592255</v>
       </c>
       <c r="D18">
-        <v>0.05598830191442516</v>
+        <v>0.1047824663099703</v>
       </c>
       <c r="E18">
-        <v>0.06163030024885785</v>
+        <v>0.9689862045903936</v>
       </c>
       <c r="F18">
-        <v>1.743282178549691</v>
+        <v>0.3040573143187117</v>
       </c>
       <c r="G18">
-        <v>1.492786543603529</v>
+        <v>0.1906208803103908</v>
       </c>
       <c r="H18">
-        <v>0.8477491690100578</v>
+        <v>0.1857454525642126</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.08012918913440892</v>
       </c>
       <c r="J18">
-        <v>0.08020911775605555</v>
+        <v>0.1116860735558092</v>
       </c>
       <c r="K18">
-        <v>5.0573341782694</v>
+        <v>0.05284165248588657</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.058984578823726</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6252821621026019</v>
+        <v>2.410308424116835</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>47.94258329616787</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5917198716852567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2031095265942184</v>
+        <v>0.2329982886543434</v>
       </c>
       <c r="D19">
-        <v>0.0556448716180995</v>
+        <v>0.09530362416710147</v>
       </c>
       <c r="E19">
-        <v>0.06135149088886394</v>
+        <v>0.8177726006754966</v>
       </c>
       <c r="F19">
-        <v>1.732500368697387</v>
+        <v>0.3412886027207804</v>
       </c>
       <c r="G19">
-        <v>1.482432534214411</v>
+        <v>0.2244295724414798</v>
       </c>
       <c r="H19">
-        <v>0.8436601012989513</v>
+        <v>0.1383777700352198</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.07820098402062658</v>
       </c>
       <c r="J19">
-        <v>0.07992513485342556</v>
+        <v>0.1313102064589984</v>
       </c>
       <c r="K19">
-        <v>5.011614266857805</v>
+        <v>0.07721727849116888</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.049640091747499</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6294662171682575</v>
+        <v>2.062907042319068</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>47.45463760160288</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7043973437540814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2117282351874081</v>
+        <v>0.1760043277149919</v>
       </c>
       <c r="D20">
-        <v>0.05719311070090782</v>
+        <v>0.08589691240932495</v>
       </c>
       <c r="E20">
-        <v>0.06261280144250492</v>
+        <v>0.6549758238366934</v>
       </c>
       <c r="F20">
-        <v>1.781373255890287</v>
+        <v>0.4238203781527403</v>
       </c>
       <c r="G20">
-        <v>1.529366981021298</v>
+        <v>0.3002573162878548</v>
       </c>
       <c r="H20">
-        <v>0.8622363813944389</v>
+        <v>0.1291846382114716</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.08539748320547513</v>
       </c>
       <c r="J20">
-        <v>0.08121669836139489</v>
+        <v>0.1670727532830654</v>
       </c>
       <c r="K20">
-        <v>5.217779222126126</v>
+        <v>0.1263219688431256</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.091787881658405</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6107563909250953</v>
+        <v>1.70536798282771</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>49.69781972160115</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9402011945419417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2411318883604281</v>
+        <v>0.1730192013668272</v>
       </c>
       <c r="D21">
-        <v>0.06244685809203077</v>
+        <v>0.09357886387984138</v>
       </c>
       <c r="E21">
-        <v>0.06697322241141279</v>
+        <v>0.7239900990963122</v>
       </c>
       <c r="F21">
-        <v>1.952191867592262</v>
+        <v>0.4979804100454785</v>
       </c>
       <c r="G21">
-        <v>1.693444076994865</v>
+        <v>0.3654858308038058</v>
       </c>
       <c r="H21">
-        <v>0.9279119308598354</v>
+        <v>0.1808716783480484</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1126875009945207</v>
       </c>
       <c r="J21">
-        <v>0.08580804936097053</v>
+        <v>0.1850000792683062</v>
       </c>
       <c r="K21">
-        <v>5.918535045898921</v>
+        <v>0.1508210450465768</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.235239530785108</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5500563390985622</v>
+        <v>1.913359297019298</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>57.60968274403234</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.116745767207135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2607303132662508</v>
+        <v>0.1711416921256586</v>
       </c>
       <c r="D22">
-        <v>0.06592368458516518</v>
+        <v>0.09867913481041057</v>
       </c>
       <c r="E22">
-        <v>0.06992265173319367</v>
+        <v>0.7793745862973509</v>
       </c>
       <c r="F22">
-        <v>2.069309061236368</v>
+        <v>0.5506562038795622</v>
       </c>
       <c r="G22">
-        <v>1.805990292071186</v>
+        <v>0.412889017997486</v>
       </c>
       <c r="H22">
-        <v>0.9735226763052083</v>
+        <v>0.2220364492142282</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1335198518934924</v>
       </c>
       <c r="J22">
-        <v>0.08901416134667528</v>
+        <v>0.1986004107861703</v>
       </c>
       <c r="K22">
-        <v>6.383457895981508</v>
+        <v>0.1708148750675065</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.330560485915285</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.512102661271129</v>
+        <v>2.07878994573872</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>63.21810998476593</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.246201956707012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2502320411595633</v>
+        <v>0.1705454170087251</v>
       </c>
       <c r="D23">
-        <v>0.06406377541185293</v>
+        <v>0.09570920330074273</v>
       </c>
       <c r="E23">
-        <v>0.06833880920822466</v>
+        <v>0.7485718206642815</v>
       </c>
       <c r="F23">
-        <v>2.006262992777266</v>
+        <v>0.5235195855203614</v>
       </c>
       <c r="G23">
-        <v>1.745398558325491</v>
+        <v>0.3884672157692393</v>
       </c>
       <c r="H23">
-        <v>0.9489159776035478</v>
+        <v>0.1992876854247201</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1219521060638531</v>
       </c>
       <c r="J23">
-        <v>0.08728300829070434</v>
+        <v>0.1918445444699302</v>
       </c>
       <c r="K23">
-        <v>6.134622249858126</v>
+        <v>0.160930652400193</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.279529291059859</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5321949550169656</v>
+        <v>1.990127302023126</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>60.17571099242429</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.180022240815163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2112533774131009</v>
+        <v>0.1695461518694543</v>
       </c>
       <c r="D24">
-        <v>0.05710790452341286</v>
+        <v>0.0844864784483903</v>
       </c>
       <c r="E24">
-        <v>0.06254309509980516</v>
+        <v>0.6395442561640152</v>
       </c>
       <c r="F24">
-        <v>1.778665836636449</v>
+        <v>0.4301300727233084</v>
       </c>
       <c r="G24">
-        <v>1.526766884133934</v>
+        <v>0.3064342490734049</v>
       </c>
       <c r="H24">
-        <v>0.8612046082795359</v>
+        <v>0.1288416041948566</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.08480619632296094</v>
       </c>
       <c r="J24">
-        <v>0.08114486694026368</v>
+        <v>0.1705610517732907</v>
       </c>
       <c r="K24">
-        <v>5.206429492099119</v>
+        <v>0.1317308387582869</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.089466870692867</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6117759646596159</v>
+        <v>1.673588576884072</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>49.57675172750066</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9605856786717197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1705399510563836</v>
+        <v>0.1663620633274832</v>
       </c>
       <c r="D25">
-        <v>0.04976211804792285</v>
+        <v>0.07177237026239425</v>
       </c>
       <c r="E25">
-        <v>0.05666754518488304</v>
+        <v>0.5293853339533001</v>
       </c>
       <c r="F25">
-        <v>1.55325711627863</v>
+        <v>0.3472953637524085</v>
       </c>
       <c r="G25">
-        <v>1.310287870330455</v>
+        <v>0.2370550827471547</v>
       </c>
       <c r="H25">
-        <v>0.7765323052946087</v>
+        <v>0.07437130049360652</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.05399497342442316</v>
       </c>
       <c r="J25">
-        <v>0.07529538361708887</v>
+        <v>0.1561308164643194</v>
       </c>
       <c r="K25">
-        <v>4.229251140050906</v>
+        <v>0.1156047288611859</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8899648832543363</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7043314759613013</v>
+        <v>1.357552804676459</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>39.34039320458015</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7822617279000923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1587756865474432</v>
+        <v>0.1854907636720071</v>
       </c>
       <c r="D2">
-        <v>0.061421420109248</v>
+        <v>0.06534090112597823</v>
       </c>
       <c r="E2">
-        <v>0.4492372109000513</v>
+        <v>0.4598660444696421</v>
       </c>
       <c r="F2">
-        <v>0.3002449302007406</v>
+        <v>0.2854569959287048</v>
       </c>
       <c r="G2">
-        <v>0.2002535506984486</v>
+        <v>0.1778588036842024</v>
       </c>
       <c r="H2">
-        <v>0.0452964222741134</v>
+        <v>0.04119845795201899</v>
       </c>
       <c r="I2">
-        <v>0.0359461628215656</v>
+        <v>0.03041896270676103</v>
       </c>
       <c r="J2">
-        <v>0.1523828145675807</v>
+        <v>0.1930670583522271</v>
       </c>
       <c r="K2">
-        <v>0.115453627571231</v>
+        <v>0.1079180507580908</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09734594800813312</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01697000724396069</v>
       </c>
       <c r="N2">
-        <v>1.137808207529957</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>32.36326869226673</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.13072121076496</v>
       </c>
       <c r="Q2">
-        <v>0.695632082862943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.32429878105472</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.6566440782080889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1555851580698544</v>
+        <v>0.174834972665721</v>
       </c>
       <c r="D3">
-        <v>0.05462487769699464</v>
+        <v>0.05764891316783149</v>
       </c>
       <c r="E3">
-        <v>0.3972147981441196</v>
+        <v>0.4051558737897949</v>
       </c>
       <c r="F3">
-        <v>0.2708588558206415</v>
+        <v>0.2609820407233912</v>
       </c>
       <c r="G3">
-        <v>0.1780247333230989</v>
+        <v>0.1578739497754995</v>
       </c>
       <c r="H3">
-        <v>0.02999151563832808</v>
+        <v>0.02741478199160782</v>
       </c>
       <c r="I3">
-        <v>0.02597076650571717</v>
+        <v>0.02236849227278848</v>
       </c>
       <c r="J3">
-        <v>0.15115123958266</v>
+        <v>0.193261080022026</v>
       </c>
       <c r="K3">
-        <v>0.1175705815642694</v>
+        <v>0.1129900726126323</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1039659811405116</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01222895256349688</v>
       </c>
       <c r="N3">
-        <v>0.9915435908110339</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>27.83995329472532</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.9852146561778738</v>
       </c>
       <c r="Q3">
-        <v>0.6453987557591319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>27.81590808911767</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6208472518322594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1535550403331314</v>
+        <v>0.1682220419013731</v>
       </c>
       <c r="D4">
-        <v>0.05040094194515632</v>
+        <v>0.0528854365672089</v>
       </c>
       <c r="E4">
-        <v>0.3656211032929519</v>
+        <v>0.371957731837</v>
       </c>
       <c r="F4">
-        <v>0.2546085944415708</v>
+        <v>0.2473777435432538</v>
       </c>
       <c r="G4">
-        <v>0.1662022315954701</v>
+        <v>0.1472926358033675</v>
       </c>
       <c r="H4">
-        <v>0.0222269258257167</v>
+        <v>0.02040421401679016</v>
       </c>
       <c r="I4">
-        <v>0.02065113460934631</v>
+        <v>0.01804730044050196</v>
       </c>
       <c r="J4">
-        <v>0.1513389832717849</v>
+        <v>0.1938679457150485</v>
       </c>
       <c r="K4">
-        <v>0.1204131427483865</v>
+        <v>0.1172457643983833</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1082540724986991</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01058441069486182</v>
       </c>
       <c r="N4">
-        <v>0.9028403219648737</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>25.13102461355828</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.8972195601922692</v>
       </c>
       <c r="Q4">
-        <v>0.6203956598948679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.11406907365932</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6034293624835811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1531461984070717</v>
+        <v>0.1659712939891875</v>
       </c>
       <c r="D5">
-        <v>0.04873488208425414</v>
+        <v>0.05100178439867165</v>
       </c>
       <c r="E5">
-        <v>0.3530347159635312</v>
+        <v>0.35872622155253</v>
       </c>
       <c r="F5">
-        <v>0.2480063267532486</v>
+        <v>0.2417886428035132</v>
       </c>
       <c r="G5">
-        <v>0.1614239627991907</v>
+        <v>0.1430127445679545</v>
       </c>
       <c r="H5">
-        <v>0.01939867941766876</v>
+        <v>0.01784625110627354</v>
       </c>
       <c r="I5">
-        <v>0.01869308517313772</v>
+        <v>0.01647132451788202</v>
       </c>
       <c r="J5">
-        <v>0.1514409534833021</v>
+        <v>0.1940399118257332</v>
       </c>
       <c r="K5">
-        <v>0.1216115860748062</v>
+        <v>0.1189568547242317</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1099020756061293</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01014418509196613</v>
       </c>
       <c r="N5">
-        <v>0.8666913729524879</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.04034492677607</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.861416046992872</v>
       </c>
       <c r="Q5">
-        <v>0.6103414277596926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.0258818757186</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.5962442711591791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1536042698186151</v>
+        <v>0.1661514026200592</v>
       </c>
       <c r="D6">
-        <v>0.04853880275960876</v>
+        <v>0.05076925164556911</v>
       </c>
       <c r="E6">
-        <v>0.3512215344555969</v>
+        <v>0.3568028841868767</v>
       </c>
       <c r="F6">
-        <v>0.2464727304073691</v>
+        <v>0.2404390594177315</v>
       </c>
       <c r="G6">
-        <v>0.1602127143260077</v>
+        <v>0.1419108824395963</v>
       </c>
       <c r="H6">
-        <v>0.01894066836394283</v>
+        <v>0.01743168521322261</v>
       </c>
       <c r="I6">
-        <v>0.01843029090390402</v>
+        <v>0.01628874946330772</v>
       </c>
       <c r="J6">
-        <v>0.1512411035447059</v>
+        <v>0.1938476224270218</v>
       </c>
       <c r="K6">
-        <v>0.1214610346803582</v>
+        <v>0.11891714974454</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1099911548162957</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.010015262454659</v>
       </c>
       <c r="N6">
-        <v>0.8604554120734065</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.85987367004395</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.8552471571230456</v>
       </c>
       <c r="Q6">
-        <v>0.6073317625239696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.84580702426672</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.5937688774228178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1549857089182183</v>
+        <v>0.1694977068749495</v>
       </c>
       <c r="D7">
-        <v>0.05060066847880762</v>
+        <v>0.05321510000727159</v>
       </c>
       <c r="E7">
-        <v>0.3661997999388049</v>
+        <v>0.3724228606725219</v>
       </c>
       <c r="F7">
-        <v>0.2532574290545639</v>
+        <v>0.2453860787003634</v>
       </c>
       <c r="G7">
-        <v>0.1649275159779862</v>
+        <v>0.1483398792557082</v>
       </c>
       <c r="H7">
-        <v>0.02216619344229528</v>
+        <v>0.02033992699187129</v>
       </c>
       <c r="I7">
-        <v>0.02075082593421662</v>
+        <v>0.01818982944612202</v>
       </c>
       <c r="J7">
-        <v>0.1507121843457782</v>
+        <v>0.1897956763499806</v>
       </c>
       <c r="K7">
-        <v>0.119414106688069</v>
+        <v>0.1160259154227248</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1076079371963665</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01028841731081531</v>
       </c>
       <c r="N7">
-        <v>0.9016887013390829</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>25.11607149943671</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.8961715508063151</v>
       </c>
       <c r="Q7">
-        <v>0.6163780958958256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.09907456519892</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.5975027135064721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1595953158390984</v>
+        <v>0.1831756388386339</v>
       </c>
       <c r="D8">
-        <v>0.05938567242517223</v>
+        <v>0.06344424430406548</v>
       </c>
       <c r="E8">
-        <v>0.4322110826843328</v>
+        <v>0.4415838022333247</v>
       </c>
       <c r="F8">
-        <v>0.2880147575788783</v>
+        <v>0.2727060242616233</v>
       </c>
       <c r="G8">
-        <v>0.1905463175382138</v>
+        <v>0.1766584890575444</v>
       </c>
       <c r="H8">
-        <v>0.03959968814466752</v>
+        <v>0.03603402393983335</v>
       </c>
       <c r="I8">
-        <v>0.03245011932388842</v>
+        <v>0.0276477331490117</v>
       </c>
       <c r="J8">
-        <v>0.1509074169315667</v>
+        <v>0.1808522063807061</v>
       </c>
       <c r="K8">
-        <v>0.1144672252132111</v>
+        <v>0.1071305984196655</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0984860409161783</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01439021404019947</v>
       </c>
       <c r="N8">
-        <v>1.086221508597674</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>30.7864948975872</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.079642292102932</v>
       </c>
       <c r="Q8">
-        <v>0.6717814392522143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.7528392080452</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6311621608656992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.165072860660743</v>
+        <v>0.206846262143884</v>
       </c>
       <c r="D9">
-        <v>0.07571236489310706</v>
+        <v>0.08218910464924534</v>
       </c>
       <c r="E9">
-        <v>0.5644762627067195</v>
+        <v>0.5807369605641099</v>
       </c>
       <c r="F9">
-        <v>0.3756775092286659</v>
+        <v>0.3446632212274352</v>
       </c>
       <c r="G9">
-        <v>0.2607228824265064</v>
+        <v>0.2425282113155021</v>
       </c>
       <c r="H9">
-        <v>0.09069567710513715</v>
+        <v>0.0818563864115105</v>
       </c>
       <c r="I9">
-        <v>0.0632830347691673</v>
+        <v>0.05218271239158145</v>
       </c>
       <c r="J9">
-        <v>0.1612467873475794</v>
+        <v>0.1809436671613796</v>
       </c>
       <c r="K9">
-        <v>0.1213599874544684</v>
+        <v>0.1033113699610837</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08383077954269247</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03485406206977792</v>
       </c>
       <c r="N9">
-        <v>1.462913080300723</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>42.67844814382846</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.456379475462825</v>
       </c>
       <c r="Q9">
-        <v>0.8434960090141317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>42.58781786323175</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7551502392332452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1732995263425039</v>
+        <v>0.2267943770845022</v>
       </c>
       <c r="D10">
-        <v>0.08843730458999488</v>
+        <v>0.09746814404547877</v>
       </c>
       <c r="E10">
-        <v>0.6838618478005998</v>
+        <v>0.7046335310471079</v>
       </c>
       <c r="F10">
-        <v>0.4488210856074275</v>
+        <v>0.399576747249931</v>
       </c>
       <c r="G10">
-        <v>0.3221184183642265</v>
+        <v>0.3147890386791659</v>
       </c>
       <c r="H10">
-        <v>0.1454448670191724</v>
+        <v>0.1306028460972173</v>
       </c>
       <c r="I10">
-        <v>0.09386058872481673</v>
+        <v>0.07617454596849438</v>
       </c>
       <c r="J10">
-        <v>0.1730044641951594</v>
+        <v>0.1624659157929855</v>
       </c>
       <c r="K10">
-        <v>0.1345555626802444</v>
+        <v>0.1041780649721851</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07213195228855618</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05743097675361142</v>
       </c>
       <c r="N10">
-        <v>1.795107289677304</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>52.32706694023227</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.791530193202988</v>
       </c>
       <c r="Q10">
-        <v>0.9992156813993347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>52.16002139635953</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8543768114938359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2260723829273559</v>
+        <v>0.2808445021536272</v>
       </c>
       <c r="D11">
-        <v>0.1045151564760403</v>
+        <v>0.1155696341398453</v>
       </c>
       <c r="E11">
-        <v>0.8967889324547826</v>
+        <v>0.9163360368377056</v>
       </c>
       <c r="F11">
-        <v>0.4303474637204303</v>
+        <v>0.3729653017069268</v>
       </c>
       <c r="G11">
-        <v>0.3017719893202013</v>
+        <v>0.3300780813385842</v>
       </c>
       <c r="H11">
-        <v>0.1912889221794423</v>
+        <v>0.1729870319193871</v>
       </c>
       <c r="I11">
-        <v>0.1106665009291206</v>
+        <v>0.08924664081139255</v>
       </c>
       <c r="J11">
-        <v>0.1522133029970121</v>
+        <v>0.1073520183418921</v>
       </c>
       <c r="K11">
-        <v>0.1041760379344403</v>
+        <v>0.07355205680597621</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0553406832024681</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0568672363323941</v>
       </c>
       <c r="N11">
-        <v>2.307454776135046</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>57.05544578185953</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.306855960370712</v>
       </c>
       <c r="Q11">
-        <v>0.9130257315892152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>56.83641686497316</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7464195482174176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2733993980820486</v>
+        <v>0.3256688967708214</v>
       </c>
       <c r="D12">
-        <v>0.1158183413743643</v>
+        <v>0.1275080578127188</v>
       </c>
       <c r="E12">
-        <v>1.067356269185396</v>
+        <v>1.084397785647568</v>
       </c>
       <c r="F12">
-        <v>0.4010843332773391</v>
+        <v>0.3435887617090572</v>
       </c>
       <c r="G12">
-        <v>0.2744180743630196</v>
+        <v>0.3197362194548958</v>
       </c>
       <c r="H12">
-        <v>0.2418753839870789</v>
+        <v>0.2220176953569108</v>
       </c>
       <c r="I12">
-        <v>0.1179992673278729</v>
+        <v>0.09485643365168528</v>
       </c>
       <c r="J12">
-        <v>0.1334128106179335</v>
+        <v>0.08097300463374779</v>
       </c>
       <c r="K12">
-        <v>0.07999350428307395</v>
+        <v>0.05273107476729422</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04588872485560813</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05317811064355737</v>
       </c>
       <c r="N12">
-        <v>2.708465438814983</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>58.92041780143819</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.709427089174824</v>
       </c>
       <c r="Q12">
-        <v>0.8158816234827952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>58.67720442879869</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6516434429240547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3215675364963033</v>
+        <v>0.3693481381349955</v>
       </c>
       <c r="D13">
-        <v>0.1244253928299912</v>
+        <v>0.1351720391899534</v>
       </c>
       <c r="E13">
-        <v>1.213775622477485</v>
+        <v>1.227602841104897</v>
       </c>
       <c r="F13">
-        <v>0.3580566033074604</v>
+        <v>0.3083853988460632</v>
       </c>
       <c r="G13">
-        <v>0.2362661129410242</v>
+        <v>0.2801218310107529</v>
       </c>
       <c r="H13">
-        <v>0.2956610989416788</v>
+        <v>0.2760363570450579</v>
       </c>
       <c r="I13">
-        <v>0.1173596716975007</v>
+        <v>0.09440033051145491</v>
       </c>
       <c r="J13">
-        <v>0.1132729146748446</v>
+        <v>0.07271440014728725</v>
       </c>
       <c r="K13">
-        <v>0.05611215289548355</v>
+        <v>0.03565904948098719</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04031480846871993</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04571209135826848</v>
       </c>
       <c r="N13">
-        <v>3.038451480576754</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>58.51977934840937</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>3.039639886109626</v>
       </c>
       <c r="Q13">
-        <v>0.6928395025751541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>58.2810061813131</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.554180179654864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3568823961542194</v>
+        <v>0.4005076633024771</v>
       </c>
       <c r="D14">
-        <v>0.1293316265304583</v>
+        <v>0.138659901071577</v>
       </c>
       <c r="E14">
-        <v>1.306655451984454</v>
+        <v>1.317902502495016</v>
       </c>
       <c r="F14">
-        <v>0.321881597897935</v>
+        <v>0.2807898071193691</v>
       </c>
       <c r="G14">
-        <v>0.2050303963217743</v>
+        <v>0.2409616272925845</v>
       </c>
       <c r="H14">
-        <v>0.3374943694819734</v>
+        <v>0.3188270221452569</v>
       </c>
       <c r="I14">
-        <v>0.1133435622870822</v>
+        <v>0.09138835985382077</v>
       </c>
       <c r="J14">
-        <v>0.09870243703264947</v>
+        <v>0.07316502775528733</v>
       </c>
       <c r="K14">
-        <v>0.04010573472293189</v>
+        <v>0.02539049388735215</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.03794920595758899</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03898834136480644</v>
       </c>
       <c r="N14">
-        <v>3.239005702849056</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>57.21686519260152</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>3.239912110193529</v>
       </c>
       <c r="Q14">
-        <v>0.5960260037416418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>56.99388991524893</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4838048707589451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3655854957142139</v>
+        <v>0.4079796026543363</v>
       </c>
       <c r="D15">
-        <v>0.1299399961831966</v>
+        <v>0.1386109664298374</v>
       </c>
       <c r="E15">
-        <v>1.321830379640161</v>
+        <v>1.332411099183034</v>
       </c>
       <c r="F15">
-        <v>0.3097647075451633</v>
+        <v>0.2721818396985896</v>
       </c>
       <c r="G15">
-        <v>0.1946583987496879</v>
+        <v>0.2259665081155049</v>
       </c>
       <c r="H15">
-        <v>0.3449963422143014</v>
+        <v>0.3269497441790037</v>
       </c>
       <c r="I15">
-        <v>0.1106907481021322</v>
+        <v>0.08941331497290594</v>
       </c>
       <c r="J15">
-        <v>0.09465321943545035</v>
+        <v>0.07585893306536562</v>
       </c>
       <c r="K15">
-        <v>0.03572043407657155</v>
+        <v>0.02299176047499252</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03784802674165277</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03636455667262872</v>
       </c>
       <c r="N15">
-        <v>3.26626780266497</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>56.42576340252299</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>3.266877083836761</v>
       </c>
       <c r="Q15">
-        <v>0.5654935711715154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>56.21228712877706</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4637386811883033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.353071048332481</v>
+        <v>0.3937728397625335</v>
       </c>
       <c r="D16">
-        <v>0.1227328687435687</v>
+        <v>0.1289066698216885</v>
       </c>
       <c r="E16">
-        <v>1.233789181306207</v>
+        <v>1.244327663204018</v>
       </c>
       <c r="F16">
-        <v>0.2827927907128398</v>
+        <v>0.2574833502221381</v>
       </c>
       <c r="G16">
-        <v>0.1715071198625751</v>
+        <v>0.1808299294317024</v>
       </c>
       <c r="H16">
-        <v>0.30267864464399</v>
+        <v>0.2881284028619291</v>
       </c>
       <c r="I16">
-        <v>0.09489128338765696</v>
+        <v>0.07732846566397011</v>
       </c>
       <c r="J16">
-        <v>0.09168270220146724</v>
+        <v>0.1015189594801242</v>
       </c>
       <c r="K16">
-        <v>0.03139480165104835</v>
+        <v>0.02427097824886459</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0425344400469303</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02727661973086448</v>
       </c>
       <c r="N16">
-        <v>3.03518930509955</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>52.01421615534673</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>3.03352589073404</v>
       </c>
       <c r="Q16">
-        <v>0.5097693053411234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>51.84941699894074</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4435039618831098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3241534159132868</v>
+        <v>0.3653366704718337</v>
       </c>
       <c r="D17">
-        <v>0.1145715240465393</v>
+        <v>0.1199344339000419</v>
       </c>
       <c r="E17">
-        <v>1.117260301342881</v>
+        <v>1.128873573800689</v>
       </c>
       <c r="F17">
-        <v>0.2820847274636122</v>
+        <v>0.2608060352295212</v>
       </c>
       <c r="G17">
-        <v>0.1710680177230017</v>
+        <v>0.1699173387925939</v>
       </c>
       <c r="H17">
-        <v>0.247848776062483</v>
+        <v>0.2352303501939872</v>
       </c>
       <c r="I17">
-        <v>0.08563237632770715</v>
+        <v>0.07017711367986479</v>
       </c>
       <c r="J17">
-        <v>0.0974576100612552</v>
+        <v>0.1203701325335871</v>
       </c>
       <c r="K17">
-        <v>0.03693637433957875</v>
+        <v>0.03114417173240192</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04770361856707872</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02412449221401225</v>
       </c>
       <c r="N17">
-        <v>2.753248305894715</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>49.40889562478225</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.750127927307375</v>
       </c>
       <c r="Q17">
-        <v>0.5206544496057006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>49.26893705416836</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4658193179568286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.279289101592255</v>
+        <v>0.3228344456483114</v>
       </c>
       <c r="D18">
-        <v>0.1047824663099703</v>
+        <v>0.1102536489132433</v>
       </c>
       <c r="E18">
-        <v>0.9689862045903936</v>
+        <v>0.9827243910052346</v>
       </c>
       <c r="F18">
-        <v>0.3040573143187117</v>
+        <v>0.2818182553113004</v>
       </c>
       <c r="G18">
-        <v>0.1906208803103908</v>
+        <v>0.1819420321773606</v>
       </c>
       <c r="H18">
-        <v>0.1857454525642126</v>
+        <v>0.1741729625793837</v>
       </c>
       <c r="I18">
-        <v>0.08012918913440892</v>
+        <v>0.06580072200583231</v>
       </c>
       <c r="J18">
-        <v>0.1116860735558092</v>
+        <v>0.1394091504167108</v>
       </c>
       <c r="K18">
-        <v>0.05284165248588657</v>
+        <v>0.04520898657397332</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05475953454858207</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02581373745559468</v>
       </c>
       <c r="N18">
-        <v>2.410308424116835</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>47.94258329616787</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.405906003120805</v>
       </c>
       <c r="Q18">
-        <v>0.5917198716852567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>47.81553944579764</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.533361882109844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2329982886543434</v>
+        <v>0.2796388302139121</v>
       </c>
       <c r="D19">
-        <v>0.09530362416710147</v>
+        <v>0.1013711408261031</v>
       </c>
       <c r="E19">
-        <v>0.8177726006754966</v>
+        <v>0.8339620462103596</v>
       </c>
       <c r="F19">
-        <v>0.3412886027207804</v>
+        <v>0.3146322975966953</v>
       </c>
       <c r="G19">
-        <v>0.2244295724414798</v>
+        <v>0.2091182588018725</v>
       </c>
       <c r="H19">
-        <v>0.1383777700352198</v>
+        <v>0.1271055810379735</v>
       </c>
       <c r="I19">
-        <v>0.07820098402062658</v>
+        <v>0.06431472361781587</v>
       </c>
       <c r="J19">
-        <v>0.1313102064589984</v>
+        <v>0.1585687229728521</v>
       </c>
       <c r="K19">
-        <v>0.07721727849116888</v>
+        <v>0.06505378652027005</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06314381538654956</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03163261537704543</v>
       </c>
       <c r="N19">
-        <v>2.062907042319068</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>47.45463760160288</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.057624927365083</v>
       </c>
       <c r="Q19">
-        <v>0.7043973437540814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>47.33174058039447</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6316610333057184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1760043277149919</v>
+        <v>0.2277159647240126</v>
       </c>
       <c r="D20">
-        <v>0.08589691240932495</v>
+        <v>0.09375573232339462</v>
       </c>
       <c r="E20">
-        <v>0.6549758238366934</v>
+        <v>0.6748332337279948</v>
       </c>
       <c r="F20">
-        <v>0.4238203781527403</v>
+        <v>0.3826665731727772</v>
       </c>
       <c r="G20">
-        <v>0.3002573162878548</v>
+        <v>0.2816924509824901</v>
       </c>
       <c r="H20">
-        <v>0.1291846382114716</v>
+        <v>0.1162119907593357</v>
       </c>
       <c r="I20">
-        <v>0.08539748320547513</v>
+        <v>0.06989174668709985</v>
       </c>
       <c r="J20">
-        <v>0.1670727532830654</v>
+        <v>0.1769152491092427</v>
       </c>
       <c r="K20">
-        <v>0.1263219688431256</v>
+        <v>0.101201234340266</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07437329248905833</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04992578542249149</v>
       </c>
       <c r="N20">
-        <v>1.70536798282771</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>49.69781972160115</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.700549435037146</v>
       </c>
       <c r="Q20">
-        <v>0.9402011945419417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>49.55561292525442</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8205727183263889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1730192013668272</v>
+        <v>0.2295709858991586</v>
       </c>
       <c r="D21">
-        <v>0.09357886387984138</v>
+        <v>0.1062194921180435</v>
       </c>
       <c r="E21">
-        <v>0.7239900990963122</v>
+        <v>0.7460129656651588</v>
       </c>
       <c r="F21">
-        <v>0.4979804100454785</v>
+        <v>0.4255619974223777</v>
       </c>
       <c r="G21">
-        <v>0.3654858308038058</v>
+        <v>0.4026703693786544</v>
       </c>
       <c r="H21">
-        <v>0.1808716783480484</v>
+        <v>0.1617320386736683</v>
       </c>
       <c r="I21">
-        <v>0.1126875009945207</v>
+        <v>0.09074019140556633</v>
       </c>
       <c r="J21">
-        <v>0.1850000792683062</v>
+        <v>0.1137612103381684</v>
       </c>
       <c r="K21">
-        <v>0.1508210450465768</v>
+        <v>0.1065946802651538</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06628648041820639</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07131773132584485</v>
       </c>
       <c r="N21">
-        <v>1.913359297019298</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>57.60968274403234</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.913707187191847</v>
       </c>
       <c r="Q21">
-        <v>1.116745767207135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>57.38214164575908</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9002080158486478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1711416921256586</v>
+        <v>0.2300667348858667</v>
       </c>
       <c r="D22">
-        <v>0.09867913481041057</v>
+        <v>0.1146952526634664</v>
       </c>
       <c r="E22">
-        <v>0.7793745862973509</v>
+        <v>0.802572396762784</v>
       </c>
       <c r="F22">
-        <v>0.5506562038795622</v>
+        <v>0.4553299327833287</v>
       </c>
       <c r="G22">
-        <v>0.412889017997486</v>
+        <v>0.4952342649881416</v>
       </c>
       <c r="H22">
-        <v>0.2220364492142282</v>
+        <v>0.1978205689424173</v>
       </c>
       <c r="I22">
-        <v>0.1335198518934924</v>
+        <v>0.1064368550491084</v>
       </c>
       <c r="J22">
-        <v>0.1986004107861703</v>
+        <v>0.07831639961820258</v>
       </c>
       <c r="K22">
-        <v>0.1708148750675065</v>
+        <v>0.1122377789840101</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06097913096295038</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08800364234969038</v>
       </c>
       <c r="N22">
-        <v>2.07878994573872</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>63.21810998476593</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.083507269589035</v>
       </c>
       <c r="Q22">
-        <v>1.246201956707012</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>62.91116633724761</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9582900372912775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1705454170087251</v>
+        <v>0.2285831487928505</v>
       </c>
       <c r="D23">
-        <v>0.09570920330074273</v>
+        <v>0.1095234442640418</v>
       </c>
       <c r="E23">
-        <v>0.7485718206642815</v>
+        <v>0.7713892770073301</v>
       </c>
       <c r="F23">
-        <v>0.5235195855203614</v>
+        <v>0.4424175529123033</v>
       </c>
       <c r="G23">
-        <v>0.3884672157692393</v>
+        <v>0.4389534955411847</v>
       </c>
       <c r="H23">
-        <v>0.1992876854247201</v>
+        <v>0.1779418156311985</v>
       </c>
       <c r="I23">
-        <v>0.1219521060638531</v>
+        <v>0.09767006569625014</v>
       </c>
       <c r="J23">
-        <v>0.1918445444699302</v>
+        <v>0.102697001431622</v>
       </c>
       <c r="K23">
-        <v>0.160930652400193</v>
+        <v>0.1108006224138407</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06440512654071995</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.0796206456407198</v>
       </c>
       <c r="N23">
-        <v>1.990127302023126</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>60.17571099242429</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.992147679708694</v>
       </c>
       <c r="Q23">
-        <v>1.180022240815163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>59.91458498424538</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9361410837455253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1695461518694543</v>
+        <v>0.2209227075566673</v>
       </c>
       <c r="D24">
-        <v>0.0844864784483903</v>
+        <v>0.09235082072147804</v>
       </c>
       <c r="E24">
-        <v>0.6395442561640152</v>
+        <v>0.6595239752911795</v>
       </c>
       <c r="F24">
-        <v>0.4301300727233084</v>
+        <v>0.3884258756857264</v>
       </c>
       <c r="G24">
-        <v>0.3064342490734049</v>
+        <v>0.2865825963502573</v>
       </c>
       <c r="H24">
-        <v>0.1288416041948566</v>
+        <v>0.115913786028967</v>
       </c>
       <c r="I24">
-        <v>0.08480619632296094</v>
+        <v>0.06925909038943256</v>
       </c>
       <c r="J24">
-        <v>0.1705610517732907</v>
+        <v>0.1806586818060936</v>
       </c>
       <c r="K24">
-        <v>0.1317308387582869</v>
+        <v>0.1057399219953581</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0762147010475509</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0513985399948389</v>
       </c>
       <c r="N24">
-        <v>1.673588576884072</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>49.57675172750066</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.66868279330032</v>
       </c>
       <c r="Q24">
-        <v>0.9605856786717197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>49.43546779527156</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8389112539456391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1663620633274832</v>
+        <v>0.2038121045761869</v>
       </c>
       <c r="D25">
-        <v>0.07177237026239425</v>
+        <v>0.07739510313999176</v>
       </c>
       <c r="E25">
-        <v>0.5293853339533001</v>
+        <v>0.5438601044639952</v>
       </c>
       <c r="F25">
-        <v>0.3472953637524085</v>
+        <v>0.322206032436732</v>
       </c>
       <c r="G25">
-        <v>0.2370550827471547</v>
+        <v>0.2170068268878822</v>
       </c>
       <c r="H25">
-        <v>0.07437130049360652</v>
+        <v>0.06726471581812155</v>
       </c>
       <c r="I25">
-        <v>0.05399497342442316</v>
+        <v>0.04498799992626523</v>
       </c>
       <c r="J25">
-        <v>0.1561308164643194</v>
+        <v>0.1841385129336288</v>
       </c>
       <c r="K25">
-        <v>0.1156047288611859</v>
+        <v>0.1016901162338932</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08708262163914782</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02738408611532428</v>
       </c>
       <c r="N25">
-        <v>1.357552804676459</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>39.34039320458015</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.350577760106944</v>
       </c>
       <c r="Q25">
-        <v>0.7822617279000923</v>
+        <v>39.26948395496851</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7122395196231253</v>
       </c>
     </row>
   </sheetData>
